--- a/scripts Stata/Atual/BaseDadosCompiladaSumLegNeLegCPC Rev Gui.xlsx
+++ b/scripts Stata/Atual/BaseDadosCompiladaSumLegNeLegCPC Rev Gui.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636427C8-4658-4A6D-B3CB-55CBAAE09969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99C1ACF-5975-484D-834D-8E2B3E460B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DadosTeses" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -445,6 +451,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,21 +776,22 @@
   <dimension ref="A1:AE321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M321"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" style="18"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -803,7 +818,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="16" t="s">
         <v>76</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -871,7 +886,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -898,7 +913,7 @@
       <c r="I2" s="6">
         <v>9410</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="17">
         <v>26.473684210526315</v>
       </c>
       <c r="K2" s="15">
@@ -966,7 +981,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -993,7 +1008,7 @@
       <c r="I3" s="6">
         <v>8878</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="17">
         <v>24.888888888888889</v>
       </c>
       <c r="K3" s="15">
@@ -1061,7 +1076,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1088,7 +1103,7 @@
       <c r="I4" s="6">
         <v>9272</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="17">
         <v>27</v>
       </c>
       <c r="K4" s="15">
@@ -1156,7 +1171,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1183,7 +1198,7 @@
       <c r="I5" s="6">
         <v>9272</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="17">
         <v>27.105263157894736</v>
       </c>
       <c r="K5" s="15">
@@ -1251,7 +1266,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="18">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1278,7 +1293,7 @@
       <c r="I6" s="6">
         <v>9272</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="17">
         <v>26.210526315789473</v>
       </c>
       <c r="K6" s="15">
@@ -1346,7 +1361,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="18">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1373,7 +1388,7 @@
       <c r="I7" s="6">
         <v>8360</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="17">
         <v>23.588235294117649</v>
       </c>
       <c r="K7" s="15">
@@ -1441,7 +1456,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="18">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1468,7 +1483,7 @@
       <c r="I8" s="6">
         <v>7938</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="17">
         <v>23.5</v>
       </c>
       <c r="K8" s="15">
@@ -1536,7 +1551,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="18">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1563,7 +1578,7 @@
       <c r="I9" s="6">
         <v>7893</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="17">
         <v>25.25</v>
       </c>
       <c r="K9" s="15">
@@ -1631,7 +1646,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="18">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1658,7 +1673,7 @@
       <c r="I10" s="6">
         <v>11424</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="17">
         <v>28.789473684210527</v>
       </c>
       <c r="K10" s="15">
@@ -1726,7 +1741,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="18">
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1753,7 +1768,7 @@
       <c r="I11" s="6">
         <v>11396</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="17">
         <v>28.789473684210527</v>
       </c>
       <c r="K11" s="15">
@@ -1821,7 +1836,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="18">
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1848,7 +1863,7 @@
       <c r="I12" s="6">
         <v>11286</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="17">
         <v>27.94736842105263</v>
       </c>
       <c r="K12" s="15">
@@ -1916,7 +1931,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="18">
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1943,7 +1958,7 @@
       <c r="I13" s="6">
         <v>11286</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="17">
         <v>27.368421052631579</v>
       </c>
       <c r="K13" s="15">
@@ -2011,7 +2026,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="18">
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2038,7 +2053,7 @@
       <c r="I14" s="6">
         <v>11286</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="17">
         <v>28.631578947368421</v>
       </c>
       <c r="K14" s="15">
@@ -2106,7 +2121,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="18">
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2133,7 +2148,7 @@
       <c r="I15" s="6">
         <v>11286</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="17">
         <v>28.894736842105264</v>
       </c>
       <c r="K15" s="15">
@@ -2201,7 +2216,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="18">
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2228,7 +2243,7 @@
       <c r="I16" s="6">
         <v>11244</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="17">
         <v>28.789473684210527</v>
       </c>
       <c r="K16" s="15">
@@ -2296,7 +2311,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="18">
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2323,7 +2338,7 @@
       <c r="I17" s="6">
         <v>11199</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="17">
         <v>26.894736842105264</v>
       </c>
       <c r="K17" s="15">
@@ -2391,7 +2406,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="18">
         <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2418,7 +2433,7 @@
       <c r="I18" s="6">
         <v>7772</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="17">
         <v>31.916666666666668</v>
       </c>
       <c r="K18" s="15">
@@ -2486,7 +2501,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="18">
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -2513,7 +2528,7 @@
       <c r="I19" s="6">
         <v>8276</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="17">
         <v>28.923076923076923</v>
       </c>
       <c r="K19" s="15">
@@ -2581,7 +2596,7 @@
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="18">
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2608,7 +2623,7 @@
       <c r="I20" s="6">
         <v>6484</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="17">
         <v>27.272727272727273</v>
       </c>
       <c r="K20" s="15">
@@ -2676,7 +2691,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="18">
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2703,7 +2718,7 @@
       <c r="I21" s="6">
         <v>6484</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="17">
         <v>29.636363636363637</v>
       </c>
       <c r="K21" s="15">
@@ -2771,7 +2786,7 @@
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="18">
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2798,7 +2813,7 @@
       <c r="I22" s="6">
         <v>6484</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="17">
         <v>29.727272727272727</v>
       </c>
       <c r="K22" s="15">
@@ -2866,7 +2881,7 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="18">
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2893,7 +2908,7 @@
       <c r="I23" s="6">
         <v>8153</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="17">
         <v>28.5</v>
       </c>
       <c r="K23" s="15">
@@ -2961,7 +2976,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="18">
         <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -2988,7 +3003,7 @@
       <c r="I24" s="6">
         <v>7297</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="17">
         <v>28.46153846153846</v>
       </c>
       <c r="K24" s="15">
@@ -3056,7 +3071,7 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="18">
         <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -3083,7 +3098,7 @@
       <c r="I25" s="6">
         <v>7392</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="17">
         <v>28.071428571428573</v>
       </c>
       <c r="K25" s="15">
@@ -3151,7 +3166,7 @@
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="18">
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3178,7 +3193,7 @@
       <c r="I26" s="6">
         <v>6324</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="17">
         <v>27.166666666666668</v>
       </c>
       <c r="K26" s="15">
@@ -3246,7 +3261,7 @@
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="18">
         <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3273,7 +3288,7 @@
       <c r="I27" s="6">
         <v>6324</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="17">
         <v>30.833333333333332</v>
       </c>
       <c r="K27" s="15">
@@ -3341,7 +3356,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="18">
         <v>4</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3368,7 +3383,7 @@
       <c r="I28" s="6">
         <v>6214</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="17">
         <v>33.166666666666664</v>
       </c>
       <c r="K28" s="15">
@@ -3436,7 +3451,7 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="18">
         <v>4</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3463,7 +3478,7 @@
       <c r="I29" s="6">
         <v>6214</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="17">
         <v>28.666666666666668</v>
       </c>
       <c r="K29" s="15">
@@ -3531,7 +3546,7 @@
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="18">
         <v>4</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3558,7 +3573,7 @@
       <c r="I30" s="6">
         <v>7014</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="17">
         <v>30.846153846153847</v>
       </c>
       <c r="K30" s="15">
@@ -3626,7 +3641,7 @@
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="18">
         <v>4</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -3653,7 +3668,7 @@
       <c r="I31" s="6">
         <v>7014</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="17">
         <v>25.615384615384617</v>
       </c>
       <c r="K31" s="15">
@@ -3721,7 +3736,7 @@
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="18">
         <v>4</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3748,7 +3763,7 @@
       <c r="I32" s="6">
         <v>6970</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="17">
         <v>31.615384615384617</v>
       </c>
       <c r="K32" s="15">
@@ -3816,7 +3831,7 @@
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="18">
         <v>4</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3843,7 +3858,7 @@
       <c r="I33" s="6">
         <v>6886</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="17">
         <v>31.76923076923077</v>
       </c>
       <c r="K33" s="15">
@@ -3911,7 +3926,7 @@
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="18">
         <v>5</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3938,7 +3953,7 @@
       <c r="I34" s="6">
         <v>5525</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="17">
         <v>37</v>
       </c>
       <c r="K34" s="15">
@@ -4006,7 +4021,7 @@
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="18">
         <v>5</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -4033,7 +4048,7 @@
       <c r="I35" s="6">
         <v>5525</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="17">
         <v>35.375</v>
       </c>
       <c r="K35" s="15">
@@ -4101,7 +4116,7 @@
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="18">
         <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -4128,7 +4143,7 @@
       <c r="I36" s="6">
         <v>5415</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="17">
         <v>36.5</v>
       </c>
       <c r="K36" s="15">
@@ -4196,7 +4211,7 @@
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="18">
         <v>5</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -4223,7 +4238,7 @@
       <c r="I37" s="6">
         <v>5415</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="17">
         <v>36.75</v>
       </c>
       <c r="K37" s="15">
@@ -4291,7 +4306,7 @@
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="18">
         <v>5</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -4318,7 +4333,7 @@
       <c r="I38" s="6">
         <v>5415</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="17">
         <v>32.125</v>
       </c>
       <c r="K38" s="15">
@@ -4386,7 +4401,7 @@
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="18">
         <v>5</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -4413,7 +4428,7 @@
       <c r="I39" s="6">
         <v>5415</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J39" s="17">
         <v>32.25</v>
       </c>
       <c r="K39" s="15">
@@ -4481,7 +4496,7 @@
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="18">
         <v>5</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -4508,7 +4523,7 @@
       <c r="I40" s="6">
         <v>5415</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="17">
         <v>30.5</v>
       </c>
       <c r="K40" s="15">
@@ -4576,7 +4591,7 @@
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="18">
         <v>5</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -4603,7 +4618,7 @@
       <c r="I41" s="6">
         <v>6215</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="17">
         <v>31.333333333333332</v>
       </c>
       <c r="K41" s="15">
@@ -4671,7 +4686,7 @@
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="18">
         <v>6</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -4698,7 +4713,7 @@
       <c r="I42" s="6">
         <v>7031</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="17">
         <v>30.083333333333332</v>
       </c>
       <c r="K42" s="15">
@@ -4766,7 +4781,7 @@
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="18">
         <v>6</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -4793,7 +4808,7 @@
       <c r="I43" s="6">
         <v>7304</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="17">
         <v>30.384615384615383</v>
       </c>
       <c r="K43" s="15">
@@ -4861,7 +4876,7 @@
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="18">
         <v>6</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -4888,7 +4903,7 @@
       <c r="I44" s="6">
         <v>7194</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="17">
         <v>26.76923076923077</v>
       </c>
       <c r="K44" s="15">
@@ -4956,7 +4971,7 @@
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="18">
         <v>6</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -4983,7 +4998,7 @@
       <c r="I45" s="6">
         <v>7194</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="17">
         <v>28.76923076923077</v>
       </c>
       <c r="K45" s="15">
@@ -5051,7 +5066,7 @@
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="18">
         <v>6</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -5078,7 +5093,7 @@
       <c r="I46" s="6">
         <v>7334</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="17">
         <v>30.5</v>
       </c>
       <c r="K46" s="15">
@@ -5146,7 +5161,7 @@
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="18">
         <v>6</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -5173,7 +5188,7 @@
       <c r="I47" s="6">
         <v>7334</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="17">
         <v>29.785714285714285</v>
       </c>
       <c r="K47" s="15">
@@ -5241,7 +5256,7 @@
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="18">
         <v>6</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -5268,7 +5283,7 @@
       <c r="I48" s="6">
         <v>7248</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="17">
         <v>30</v>
       </c>
       <c r="K48" s="15">
@@ -5336,7 +5351,7 @@
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="18">
         <v>6</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -5363,7 +5378,7 @@
       <c r="I49" s="6">
         <v>7203</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="17">
         <v>32.5</v>
       </c>
       <c r="K49" s="15">
@@ -5431,7 +5446,7 @@
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="18">
         <v>7</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -5458,7 +5473,7 @@
       <c r="I50" s="6">
         <v>7530</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="17">
         <v>26.615384615384617</v>
       </c>
       <c r="K50" s="15">
@@ -5526,7 +5541,7 @@
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="18">
         <v>7</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -5553,7 +5568,7 @@
       <c r="I51" s="6">
         <v>7098</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="17">
         <v>26</v>
       </c>
       <c r="K51" s="15">
@@ -5621,7 +5636,7 @@
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="18">
         <v>7</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -5648,7 +5663,7 @@
       <c r="I52" s="6">
         <v>7339</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="17">
         <v>27</v>
       </c>
       <c r="K52" s="15">
@@ -5716,7 +5731,7 @@
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="18">
         <v>7</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -5743,7 +5758,7 @@
       <c r="I53" s="6">
         <v>7339</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J53" s="17">
         <v>29.307692307692307</v>
       </c>
       <c r="K53" s="15">
@@ -5811,7 +5826,7 @@
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="18">
         <v>7</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -5838,7 +5853,7 @@
       <c r="I54" s="6">
         <v>6988</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="17">
         <v>29.583333333333332</v>
       </c>
       <c r="K54" s="15">
@@ -5906,7 +5921,7 @@
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="18">
         <v>7</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -5933,7 +5948,7 @@
       <c r="I55" s="6">
         <v>6988</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="17">
         <v>26.833333333333332</v>
       </c>
       <c r="K55" s="15">
@@ -6001,7 +6016,7 @@
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="18">
         <v>7</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -6028,7 +6043,7 @@
       <c r="I56" s="6">
         <v>6946</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J56" s="17">
         <v>30.083333333333332</v>
       </c>
       <c r="K56" s="15">
@@ -6096,7 +6111,7 @@
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="18">
         <v>7</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -6123,7 +6138,7 @@
       <c r="I57" s="6">
         <v>6946</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="17">
         <v>27.333333333333332</v>
       </c>
       <c r="K57" s="15">
@@ -6191,7 +6206,7 @@
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="18">
         <v>8</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -6218,7 +6233,7 @@
       <c r="I58" s="6">
         <v>8176</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="17">
         <v>34.5</v>
       </c>
       <c r="K58" s="15">
@@ -6286,7 +6301,7 @@
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="18">
         <v>8</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -6313,7 +6328,7 @@
       <c r="I59" s="6">
         <v>7797</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="17">
         <v>33.466666666666669</v>
       </c>
       <c r="K59" s="15">
@@ -6381,7 +6396,7 @@
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="18">
         <v>8</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -6408,7 +6423,7 @@
       <c r="I60" s="6">
         <v>7534</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="17">
         <v>29.066666666666666</v>
       </c>
       <c r="K60" s="15">
@@ -6476,7 +6491,7 @@
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="18">
         <v>8</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -6503,7 +6518,7 @@
       <c r="I61" s="6">
         <v>6993</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J61" s="17">
         <v>30.46153846153846</v>
       </c>
       <c r="K61" s="15">
@@ -6571,7 +6586,7 @@
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="18">
         <v>8</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -6598,7 +6613,7 @@
       <c r="I62" s="6">
         <v>7848</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="17">
         <v>31.066666666666666</v>
       </c>
       <c r="K62" s="15">
@@ -6666,7 +6681,7 @@
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="18">
         <v>8</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -6693,7 +6708,7 @@
       <c r="I63" s="6">
         <v>6217</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J63" s="17">
         <v>35.916666666666664</v>
       </c>
       <c r="K63" s="15">
@@ -6761,7 +6776,7 @@
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="18">
         <v>8</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -6788,7 +6803,7 @@
       <c r="I64" s="6">
         <v>5866</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64" s="17">
         <v>34.727272727272727</v>
       </c>
       <c r="K64" s="15">
@@ -6856,7 +6871,7 @@
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="18">
         <v>8</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -6883,7 +6898,7 @@
       <c r="I65" s="6">
         <v>4152</v>
       </c>
-      <c r="J65" s="15">
+      <c r="J65" s="17">
         <v>23.555555555555557</v>
       </c>
       <c r="K65" s="15">
@@ -6951,7 +6966,7 @@
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="18">
         <v>9</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -6978,7 +6993,7 @@
       <c r="I66" s="6">
         <v>5879</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J66" s="17">
         <v>29.636363636363637</v>
       </c>
       <c r="K66" s="15">
@@ -7046,7 +7061,7 @@
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="18">
         <v>9</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -7073,7 +7088,7 @@
       <c r="I67" s="6">
         <v>5037</v>
       </c>
-      <c r="J67" s="15">
+      <c r="J67" s="17">
         <v>25</v>
       </c>
       <c r="K67" s="15">
@@ -7141,7 +7156,7 @@
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="18">
         <v>9</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -7168,7 +7183,7 @@
       <c r="I68" s="6">
         <v>4423</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J68" s="17">
         <v>21.1</v>
       </c>
       <c r="K68" s="15">
@@ -7236,7 +7251,7 @@
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="18">
         <v>9</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -7263,7 +7278,7 @@
       <c r="I69" s="6">
         <v>4927</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J69" s="17">
         <v>23.818181818181817</v>
       </c>
       <c r="K69" s="15">
@@ -7331,7 +7346,7 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="18">
         <v>9</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -7358,7 +7373,7 @@
       <c r="I70" s="6">
         <v>6424</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J70" s="17">
         <v>20.23076923076923</v>
       </c>
       <c r="K70" s="15">
@@ -7426,7 +7441,7 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="18">
         <v>9</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -7453,7 +7468,7 @@
       <c r="I71" s="6">
         <v>6583</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J71" s="17">
         <v>28.384615384615383</v>
       </c>
       <c r="K71" s="15">
@@ -7521,7 +7536,7 @@
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="18">
         <v>9</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -7548,7 +7563,7 @@
       <c r="I72" s="6">
         <v>7087</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J72" s="17">
         <v>27.071428571428573</v>
       </c>
       <c r="K72" s="15">
@@ -7616,7 +7631,7 @@
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="18">
         <v>9</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -7643,7 +7658,7 @@
       <c r="I73" s="6">
         <v>6454</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J73" s="17">
         <v>22.153846153846153</v>
       </c>
       <c r="K73" s="15">
@@ -7711,7 +7726,7 @@
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="18">
         <v>10</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -7738,7 +7753,7 @@
       <c r="I74" s="6">
         <v>10221</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J74" s="17">
         <v>27.235294117647058</v>
       </c>
       <c r="K74" s="15">
@@ -7806,7 +7821,7 @@
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="18">
         <v>10</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -7833,7 +7848,7 @@
       <c r="I75" s="6">
         <v>10193</v>
       </c>
-      <c r="J75" s="15">
+      <c r="J75" s="17">
         <v>24.470588235294116</v>
       </c>
       <c r="K75" s="15">
@@ -7901,7 +7916,7 @@
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="18">
         <v>10</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -7928,7 +7943,7 @@
       <c r="I76" s="6">
         <v>10083</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J76" s="17">
         <v>21.176470588235293</v>
       </c>
       <c r="K76" s="15">
@@ -7996,7 +8011,7 @@
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="18">
         <v>10</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -8023,7 +8038,7 @@
       <c r="I77" s="6">
         <v>8905</v>
       </c>
-      <c r="J77" s="15">
+      <c r="J77" s="17">
         <v>20.6875</v>
       </c>
       <c r="K77" s="15">
@@ -8091,7 +8106,7 @@
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="18">
         <v>10</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -8118,7 +8133,7 @@
       <c r="I78" s="6">
         <v>8905</v>
       </c>
-      <c r="J78" s="15">
+      <c r="J78" s="17">
         <v>19.4375</v>
       </c>
       <c r="K78" s="15">
@@ -8186,7 +8201,7 @@
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="18">
         <v>10</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -8213,7 +8228,7 @@
       <c r="I79" s="6">
         <v>8905</v>
       </c>
-      <c r="J79" s="15">
+      <c r="J79" s="17">
         <v>18.3125</v>
       </c>
       <c r="K79" s="15">
@@ -8281,7 +8296,7 @@
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="18">
         <v>10</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -8308,7 +8323,7 @@
       <c r="I80" s="6">
         <v>8863</v>
       </c>
-      <c r="J80" s="15">
+      <c r="J80" s="17">
         <v>21.125</v>
       </c>
       <c r="K80" s="15">
@@ -8376,7 +8391,7 @@
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="18">
         <v>10</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -8403,7 +8418,7 @@
       <c r="I81" s="6">
         <v>8734</v>
       </c>
-      <c r="J81" s="15">
+      <c r="J81" s="17">
         <v>20.1875</v>
       </c>
       <c r="K81" s="15">
@@ -8471,7 +8486,7 @@
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="18">
         <v>11</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -8498,7 +8513,7 @@
       <c r="I82" s="6">
         <v>6930</v>
       </c>
-      <c r="J82" s="15">
+      <c r="J82" s="17">
         <v>29.666666666666668</v>
       </c>
       <c r="K82" s="15">
@@ -8566,7 +8581,7 @@
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="18">
         <v>11</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -8593,7 +8608,7 @@
       <c r="I83" s="6">
         <v>7428</v>
       </c>
-      <c r="J83" s="15">
+      <c r="J83" s="17">
         <v>25.428571428571427</v>
       </c>
       <c r="K83" s="15">
@@ -8661,7 +8676,7 @@
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="18">
         <v>11</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -8688,7 +8703,7 @@
       <c r="I84" s="6">
         <v>7318</v>
       </c>
-      <c r="J84" s="15">
+      <c r="J84" s="17">
         <v>22.071428571428573</v>
       </c>
       <c r="K84" s="15">
@@ -8756,7 +8771,7 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="18">
         <v>11</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -8783,7 +8798,7 @@
       <c r="I85" s="6">
         <v>7318</v>
       </c>
-      <c r="J85" s="15">
+      <c r="J85" s="17">
         <v>25.714285714285715</v>
       </c>
       <c r="K85" s="15">
@@ -8851,7 +8866,7 @@
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="18">
         <v>11</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -8878,7 +8893,7 @@
       <c r="I86" s="6">
         <v>7318</v>
       </c>
-      <c r="J86" s="15">
+      <c r="J86" s="17">
         <v>25.714285714285715</v>
       </c>
       <c r="K86" s="15">
@@ -8946,7 +8961,7 @@
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="18">
         <v>11</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -8973,7 +8988,7 @@
       <c r="I87" s="6">
         <v>6982</v>
       </c>
-      <c r="J87" s="15">
+      <c r="J87" s="17">
         <v>24.846153846153847</v>
       </c>
       <c r="K87" s="15">
@@ -9041,7 +9056,7 @@
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="18">
         <v>11</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -9068,7 +9083,7 @@
       <c r="I88" s="6">
         <v>6940</v>
       </c>
-      <c r="J88" s="15">
+      <c r="J88" s="17">
         <v>32.92307692307692</v>
       </c>
       <c r="K88" s="15">
@@ -9136,7 +9151,7 @@
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="18">
         <v>11</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -9163,7 +9178,7 @@
       <c r="I89" s="6">
         <v>6940</v>
       </c>
-      <c r="J89" s="15">
+      <c r="J89" s="17">
         <v>30.384615384615383</v>
       </c>
       <c r="K89" s="15">
@@ -9231,7 +9246,7 @@
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="18">
         <v>12</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -9258,7 +9273,7 @@
       <c r="I90" s="6">
         <v>7039</v>
       </c>
-      <c r="J90" s="15">
+      <c r="J90" s="17">
         <v>27.76923076923077</v>
       </c>
       <c r="K90" s="15">
@@ -9326,7 +9341,7 @@
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="18">
         <v>12</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -9353,7 +9368,7 @@
       <c r="I91" s="6">
         <v>7011</v>
       </c>
-      <c r="J91" s="15">
+      <c r="J91" s="17">
         <v>30.384615384615383</v>
       </c>
       <c r="K91" s="15">
@@ -9421,7 +9436,7 @@
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="18">
         <v>12</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -9448,7 +9463,7 @@
       <c r="I92" s="6">
         <v>6901</v>
       </c>
-      <c r="J92" s="15">
+      <c r="J92" s="17">
         <v>29</v>
       </c>
       <c r="K92" s="15">
@@ -9516,7 +9531,7 @@
       </c>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="18">
         <v>12</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -9543,7 +9558,7 @@
       <c r="I93" s="6">
         <v>6901</v>
       </c>
-      <c r="J93" s="15">
+      <c r="J93" s="17">
         <v>25.692307692307693</v>
       </c>
       <c r="K93" s="15">
@@ -9611,7 +9626,7 @@
       </c>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="18">
         <v>12</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -9638,7 +9653,7 @@
       <c r="I94" s="6">
         <v>6901</v>
       </c>
-      <c r="J94" s="15">
+      <c r="J94" s="17">
         <v>28.846153846153847</v>
       </c>
       <c r="K94" s="15">
@@ -9706,7 +9721,7 @@
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="18">
         <v>12</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -9733,7 +9748,7 @@
       <c r="I95" s="6">
         <v>6901</v>
       </c>
-      <c r="J95" s="15">
+      <c r="J95" s="17">
         <v>27.846153846153847</v>
       </c>
       <c r="K95" s="15">
@@ -9801,7 +9816,7 @@
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="18">
         <v>12</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -9828,7 +9843,7 @@
       <c r="I96" s="6">
         <v>6901</v>
       </c>
-      <c r="J96" s="15">
+      <c r="J96" s="17">
         <v>23.615384615384617</v>
       </c>
       <c r="K96" s="15">
@@ -9896,7 +9911,7 @@
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="18">
         <v>12</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -9923,7 +9938,7 @@
       <c r="I97" s="6">
         <v>6856</v>
       </c>
-      <c r="J97" s="15">
+      <c r="J97" s="17">
         <v>24.153846153846153</v>
       </c>
       <c r="K97" s="15">
@@ -9991,7 +10006,7 @@
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="18">
         <v>13</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -10018,7 +10033,7 @@
       <c r="I98" s="6">
         <v>10649</v>
       </c>
-      <c r="J98" s="15">
+      <c r="J98" s="17">
         <v>36.117647058823529</v>
       </c>
       <c r="K98" s="15">
@@ -10086,7 +10101,7 @@
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="18">
         <v>13</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -10113,7 +10128,7 @@
       <c r="I99" s="6">
         <v>10621</v>
       </c>
-      <c r="J99" s="15">
+      <c r="J99" s="17">
         <v>35.411764705882355</v>
       </c>
       <c r="K99" s="15">
@@ -10181,7 +10196,7 @@
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="18">
         <v>13</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -10208,7 +10223,7 @@
       <c r="I100" s="6">
         <v>10511</v>
       </c>
-      <c r="J100" s="15">
+      <c r="J100" s="17">
         <v>35.176470588235297</v>
       </c>
       <c r="K100" s="15">
@@ -10276,7 +10291,7 @@
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="18">
         <v>13</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -10303,7 +10318,7 @@
       <c r="I101" s="6">
         <v>10511</v>
       </c>
-      <c r="J101" s="15">
+      <c r="J101" s="17">
         <v>35.705882352941174</v>
       </c>
       <c r="K101" s="15">
@@ -10371,7 +10386,7 @@
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="18">
         <v>13</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -10398,7 +10413,7 @@
       <c r="I102" s="6">
         <v>10511</v>
       </c>
-      <c r="J102" s="15">
+      <c r="J102" s="17">
         <v>35.352941176470587</v>
       </c>
       <c r="K102" s="15">
@@ -10466,7 +10481,7 @@
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="18">
         <v>13</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -10493,7 +10508,7 @@
       <c r="I103" s="6">
         <v>10511</v>
       </c>
-      <c r="J103" s="15">
+      <c r="J103" s="17">
         <v>31.882352941176471</v>
       </c>
       <c r="K103" s="15">
@@ -10561,7 +10576,7 @@
       </c>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="18">
         <v>13</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -10588,7 +10603,7 @@
       <c r="I104" s="6">
         <v>10469</v>
       </c>
-      <c r="J104" s="15">
+      <c r="J104" s="17">
         <v>32.352941176470587</v>
       </c>
       <c r="K104" s="15">
@@ -10656,7 +10671,7 @@
       </c>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="18">
         <v>13</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -10683,7 +10698,7 @@
       <c r="I105" s="6">
         <v>10424</v>
       </c>
-      <c r="J105" s="15">
+      <c r="J105" s="17">
         <v>33.117647058823529</v>
       </c>
       <c r="K105" s="15">
@@ -10751,7 +10766,7 @@
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="18">
         <v>14</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -10778,7 +10793,7 @@
       <c r="I106" s="6">
         <v>7449</v>
       </c>
-      <c r="J106" s="15">
+      <c r="J106" s="17">
         <v>29.153846153846153</v>
       </c>
       <c r="K106" s="15">
@@ -10846,7 +10861,7 @@
       </c>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="18">
         <v>14</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -10873,7 +10888,7 @@
       <c r="I107" s="6">
         <v>7449</v>
       </c>
-      <c r="J107" s="15">
+      <c r="J107" s="17">
         <v>29.153846153846153</v>
       </c>
       <c r="K107" s="15">
@@ -10941,7 +10956,7 @@
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="18">
         <v>14</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -10968,7 +10983,7 @@
       <c r="I108" s="6">
         <v>7339</v>
       </c>
-      <c r="J108" s="15">
+      <c r="J108" s="17">
         <v>28.076923076923077</v>
       </c>
       <c r="K108" s="15">
@@ -11036,7 +11051,7 @@
       </c>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="18">
         <v>14</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -11063,7 +11078,7 @@
       <c r="I109" s="6">
         <v>7339</v>
       </c>
-      <c r="J109" s="15">
+      <c r="J109" s="17">
         <v>30.846153846153847</v>
       </c>
       <c r="K109" s="15">
@@ -11131,7 +11146,7 @@
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="18">
         <v>14</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -11158,7 +11173,7 @@
       <c r="I110" s="6">
         <v>7339</v>
       </c>
-      <c r="J110" s="15">
+      <c r="J110" s="17">
         <v>31.692307692307693</v>
       </c>
       <c r="K110" s="15">
@@ -11226,7 +11241,7 @@
       </c>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="18">
         <v>14</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -11253,7 +11268,7 @@
       <c r="I111" s="6">
         <v>7339</v>
       </c>
-      <c r="J111" s="15">
+      <c r="J111" s="17">
         <v>30.384615384615383</v>
       </c>
       <c r="K111" s="15">
@@ -11321,7 +11336,7 @@
       </c>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="18">
         <v>14</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -11348,7 +11363,7 @@
       <c r="I112" s="6">
         <v>7437</v>
       </c>
-      <c r="J112" s="15">
+      <c r="J112" s="17">
         <v>29.357142857142858</v>
       </c>
       <c r="K112" s="15">
@@ -11416,7 +11431,7 @@
       </c>
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="18">
         <v>14</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -11443,7 +11458,7 @@
       <c r="I113" s="6">
         <v>7392</v>
       </c>
-      <c r="J113" s="15">
+      <c r="J113" s="17">
         <v>27.928571428571427</v>
       </c>
       <c r="K113" s="15">
@@ -11511,7 +11526,7 @@
       </c>
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="18">
         <v>15</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -11538,7 +11553,7 @@
       <c r="I114" s="6">
         <v>8627</v>
       </c>
-      <c r="J114" s="15">
+      <c r="J114" s="17">
         <v>28</v>
       </c>
       <c r="K114" s="15">
@@ -11606,7 +11621,7 @@
       </c>
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="18">
         <v>15</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -11633,7 +11648,7 @@
       <c r="I115" s="6">
         <v>7449</v>
       </c>
-      <c r="J115" s="15">
+      <c r="J115" s="17">
         <v>29.846153846153847</v>
       </c>
       <c r="K115" s="15">
@@ -11701,7 +11716,7 @@
       </c>
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="18">
         <v>15</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -11728,7 +11743,7 @@
       <c r="I116" s="6">
         <v>7339</v>
       </c>
-      <c r="J116" s="15">
+      <c r="J116" s="17">
         <v>28.46153846153846</v>
       </c>
       <c r="K116" s="15">
@@ -11796,7 +11811,7 @@
       </c>
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="18">
         <v>15</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -11823,7 +11838,7 @@
       <c r="I117" s="6">
         <v>7339</v>
       </c>
-      <c r="J117" s="15">
+      <c r="J117" s="17">
         <v>33.230769230769234</v>
       </c>
       <c r="K117" s="15">
@@ -11891,7 +11906,7 @@
       </c>
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="18">
         <v>15</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -11918,7 +11933,7 @@
       <c r="I118" s="6">
         <v>7339</v>
       </c>
-      <c r="J118" s="15">
+      <c r="J118" s="17">
         <v>33.07692307692308</v>
       </c>
       <c r="K118" s="15">
@@ -11986,7 +12001,7 @@
       </c>
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="18">
         <v>15</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -12013,7 +12028,7 @@
       <c r="I119" s="6">
         <v>7339</v>
       </c>
-      <c r="J119" s="15">
+      <c r="J119" s="17">
         <v>30.076923076923077</v>
       </c>
       <c r="K119" s="15">
@@ -12081,7 +12096,7 @@
       </c>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="18">
         <v>15</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -12108,7 +12123,7 @@
       <c r="I120" s="6">
         <v>7437</v>
       </c>
-      <c r="J120" s="15">
+      <c r="J120" s="17">
         <v>32.214285714285715</v>
       </c>
       <c r="K120" s="15">
@@ -12176,7 +12191,7 @@
       </c>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="18">
         <v>15</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -12203,7 +12218,7 @@
       <c r="I121" s="6">
         <v>7392</v>
       </c>
-      <c r="J121" s="15">
+      <c r="J121" s="17">
         <v>32.142857142857146</v>
       </c>
       <c r="K121" s="15">
@@ -12271,7 +12286,7 @@
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="18">
         <v>16</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -12298,7 +12313,7 @@
       <c r="I122" s="6">
         <v>9731</v>
       </c>
-      <c r="J122" s="15">
+      <c r="J122" s="17">
         <v>28.117647058823529</v>
       </c>
       <c r="K122" s="15">
@@ -12366,7 +12381,7 @@
       </c>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="18">
         <v>16</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -12393,7 +12408,7 @@
       <c r="I123" s="6">
         <v>9703</v>
       </c>
-      <c r="J123" s="15">
+      <c r="J123" s="17">
         <v>30.647058823529413</v>
       </c>
       <c r="K123" s="15">
@@ -12461,7 +12476,7 @@
       </c>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="18">
         <v>16</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -12488,7 +12503,7 @@
       <c r="I124" s="6">
         <v>7479</v>
       </c>
-      <c r="J124" s="15">
+      <c r="J124" s="17">
         <v>30.071428571428573</v>
       </c>
       <c r="K124" s="15">
@@ -12556,7 +12571,7 @@
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="18">
         <v>16</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -12583,7 +12598,7 @@
       <c r="I125" s="6">
         <v>6975</v>
       </c>
-      <c r="J125" s="15">
+      <c r="J125" s="17">
         <v>29.615384615384617</v>
       </c>
       <c r="K125" s="15">
@@ -12651,7 +12666,7 @@
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="18">
         <v>16</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -12678,7 +12693,7 @@
       <c r="I126" s="6">
         <v>8153</v>
       </c>
-      <c r="J126" s="15">
+      <c r="J126" s="17">
         <v>30.285714285714285</v>
       </c>
       <c r="K126" s="15">
@@ -12746,7 +12761,7 @@
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="18">
         <v>16</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -12773,7 +12788,7 @@
       <c r="I127" s="6">
         <v>8657</v>
       </c>
-      <c r="J127" s="15">
+      <c r="J127" s="17">
         <v>30.666666666666668</v>
       </c>
       <c r="K127" s="15">
@@ -12841,7 +12856,7 @@
       </c>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="18">
         <v>16</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -12868,7 +12883,7 @@
       <c r="I128" s="6">
         <v>8111</v>
       </c>
-      <c r="J128" s="15">
+      <c r="J128" s="17">
         <v>32.5</v>
       </c>
       <c r="K128" s="15">
@@ -12936,7 +12951,7 @@
       </c>
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="18">
         <v>16</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -12963,7 +12978,7 @@
       <c r="I129" s="6">
         <v>8570</v>
       </c>
-      <c r="J129" s="15">
+      <c r="J129" s="17">
         <v>31.333333333333332</v>
       </c>
       <c r="K129" s="15">
@@ -13031,7 +13046,7 @@
       </c>
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="18">
         <v>17</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -13058,7 +13073,7 @@
       <c r="I130" s="6">
         <v>8762</v>
       </c>
-      <c r="J130" s="15">
+      <c r="J130" s="17">
         <v>35.06666666666667</v>
       </c>
       <c r="K130" s="15">
@@ -13126,7 +13141,7 @@
       </c>
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="18">
         <v>17</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -13153,7 +13168,7 @@
       <c r="I131" s="6">
         <v>7556</v>
       </c>
-      <c r="J131" s="15">
+      <c r="J131" s="17">
         <v>33.928571428571431</v>
       </c>
       <c r="K131" s="15">
@@ -13221,7 +13236,7 @@
       </c>
     </row>
     <row r="132" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="18">
         <v>17</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -13248,7 +13263,7 @@
       <c r="I132" s="6">
         <v>7446</v>
       </c>
-      <c r="J132" s="15">
+      <c r="J132" s="17">
         <v>30.714285714285715</v>
       </c>
       <c r="K132" s="15">
@@ -13316,7 +13331,7 @@
       </c>
     </row>
     <row r="133" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="18">
         <v>17</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -13343,7 +13358,7 @@
       <c r="I133" s="6">
         <v>7926</v>
       </c>
-      <c r="J133" s="15">
+      <c r="J133" s="17">
         <v>30.133333333333333</v>
       </c>
       <c r="K133" s="15">
@@ -13411,7 +13426,7 @@
       </c>
     </row>
     <row r="134" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="18">
         <v>17</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -13438,7 +13453,7 @@
       <c r="I134" s="6">
         <v>7926</v>
       </c>
-      <c r="J134" s="15">
+      <c r="J134" s="17">
         <v>32.733333333333334</v>
       </c>
       <c r="K134" s="15">
@@ -13506,7 +13521,7 @@
       </c>
     </row>
     <row r="135" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="18">
         <v>17</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -13533,7 +13548,7 @@
       <c r="I135" s="6">
         <v>7926</v>
       </c>
-      <c r="J135" s="15">
+      <c r="J135" s="17">
         <v>31.933333333333334</v>
       </c>
       <c r="K135" s="15">
@@ -13601,7 +13616,7 @@
       </c>
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="18">
         <v>17</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -13628,7 +13643,7 @@
       <c r="I136" s="6">
         <v>8430</v>
       </c>
-      <c r="J136" s="15">
+      <c r="J136" s="17">
         <v>29.6875</v>
       </c>
       <c r="K136" s="15">
@@ -13696,7 +13711,7 @@
       </c>
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="18">
         <v>17</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -13723,7 +13738,7 @@
       <c r="I137" s="6">
         <v>8301</v>
       </c>
-      <c r="J137" s="15">
+      <c r="J137" s="17">
         <v>29.75</v>
       </c>
       <c r="K137" s="15">
@@ -13791,7 +13806,7 @@
       </c>
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="18">
         <v>18</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -13818,7 +13833,7 @@
       <c r="I138" s="6">
         <v>8482</v>
       </c>
-      <c r="J138" s="15">
+      <c r="J138" s="17">
         <v>29.866666666666667</v>
       </c>
       <c r="K138" s="15">
@@ -13886,7 +13901,7 @@
       </c>
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="18">
         <v>18</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -13913,7 +13928,7 @@
       <c r="I139" s="6">
         <v>8454</v>
       </c>
-      <c r="J139" s="15">
+      <c r="J139" s="17">
         <v>26.6</v>
       </c>
       <c r="K139" s="15">
@@ -13981,7 +13996,7 @@
       </c>
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="18">
         <v>18</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -14008,7 +14023,7 @@
       <c r="I140" s="6">
         <v>8344</v>
       </c>
-      <c r="J140" s="15">
+      <c r="J140" s="17">
         <v>26.8</v>
       </c>
       <c r="K140" s="15">
@@ -14076,7 +14091,7 @@
       </c>
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="18">
         <v>18</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -14103,7 +14118,7 @@
       <c r="I141" s="6">
         <v>8204</v>
       </c>
-      <c r="J141" s="15">
+      <c r="J141" s="17">
         <v>26.071428571428573</v>
       </c>
       <c r="K141" s="15">
@@ -14171,7 +14186,7 @@
       </c>
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="18">
         <v>18</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -14198,7 +14213,7 @@
       <c r="I142" s="6">
         <v>8014</v>
       </c>
-      <c r="J142" s="15">
+      <c r="J142" s="17">
         <v>27.384615384615383</v>
       </c>
       <c r="K142" s="15">
@@ -14266,7 +14281,7 @@
       </c>
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="18">
         <v>18</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -14293,7 +14308,7 @@
       <c r="I143" s="6">
         <v>8014</v>
       </c>
-      <c r="J143" s="15">
+      <c r="J143" s="17">
         <v>27.692307692307693</v>
       </c>
       <c r="K143" s="15">
@@ -14361,7 +14376,7 @@
       </c>
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="18">
         <v>18</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -14388,7 +14403,7 @@
       <c r="I144" s="6">
         <v>7972</v>
       </c>
-      <c r="J144" s="15">
+      <c r="J144" s="17">
         <v>29.23076923076923</v>
       </c>
       <c r="K144" s="15">
@@ -14456,7 +14471,7 @@
       </c>
     </row>
     <row r="145" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="18">
         <v>18</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -14483,7 +14498,7 @@
       <c r="I145" s="6">
         <v>7972</v>
       </c>
-      <c r="J145" s="15">
+      <c r="J145" s="17">
         <v>27.153846153846153</v>
       </c>
       <c r="K145" s="15">
@@ -14551,7 +14566,7 @@
       </c>
     </row>
     <row r="146" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="18">
         <v>19</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -14578,7 +14593,7 @@
       <c r="I146" s="6">
         <v>7266</v>
       </c>
-      <c r="J146" s="15">
+      <c r="J146" s="17">
         <v>33.384615384615387</v>
       </c>
       <c r="K146" s="15">
@@ -14646,7 +14661,7 @@
       </c>
     </row>
     <row r="147" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="18">
         <v>19</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -14673,7 +14688,7 @@
       <c r="I147" s="6">
         <v>7238</v>
       </c>
-      <c r="J147" s="15">
+      <c r="J147" s="17">
         <v>31.53846153846154</v>
       </c>
       <c r="K147" s="15">
@@ -14741,7 +14756,7 @@
       </c>
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="18">
         <v>19</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -14768,7 +14783,7 @@
       <c r="I148" s="6">
         <v>7128</v>
       </c>
-      <c r="J148" s="15">
+      <c r="J148" s="17">
         <v>30.153846153846153</v>
       </c>
       <c r="K148" s="15">
@@ -14836,7 +14851,7 @@
       </c>
     </row>
     <row r="149" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="18">
         <v>19</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -14863,7 +14878,7 @@
       <c r="I149" s="6">
         <v>7128</v>
       </c>
-      <c r="J149" s="15">
+      <c r="J149" s="17">
         <v>28.923076923076923</v>
       </c>
       <c r="K149" s="15">
@@ -14931,7 +14946,7 @@
       </c>
     </row>
     <row r="150" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="18">
         <v>19</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -14958,7 +14973,7 @@
       <c r="I150" s="6">
         <v>7128</v>
       </c>
-      <c r="J150" s="15">
+      <c r="J150" s="17">
         <v>33.92307692307692</v>
       </c>
       <c r="K150" s="15">
@@ -15026,7 +15041,7 @@
       </c>
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="18">
         <v>19</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -15053,7 +15068,7 @@
       <c r="I151" s="6">
         <v>7128</v>
       </c>
-      <c r="J151" s="15">
+      <c r="J151" s="17">
         <v>34</v>
       </c>
       <c r="K151" s="15">
@@ -15121,7 +15136,7 @@
       </c>
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="18">
         <v>19</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -15148,7 +15163,7 @@
       <c r="I152" s="6">
         <v>7086</v>
       </c>
-      <c r="J152" s="15">
+      <c r="J152" s="17">
         <v>33.153846153846153</v>
       </c>
       <c r="K152" s="15">
@@ -15216,7 +15231,7 @@
       </c>
     </row>
     <row r="153" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="18">
         <v>19</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -15243,7 +15258,7 @@
       <c r="I153" s="6">
         <v>6582</v>
       </c>
-      <c r="J153" s="15">
+      <c r="J153" s="17">
         <v>34.75</v>
       </c>
       <c r="K153" s="15">
@@ -15311,7 +15326,7 @@
       </c>
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="18">
         <v>20</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -15338,7 +15353,7 @@
       <c r="I154" s="6">
         <v>6934</v>
       </c>
-      <c r="J154" s="15">
+      <c r="J154" s="17">
         <v>32.75</v>
       </c>
       <c r="K154" s="15">
@@ -15406,7 +15421,7 @@
       </c>
     </row>
     <row r="155" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="18">
         <v>20</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -15433,7 +15448,7 @@
       <c r="I155" s="6">
         <v>6555</v>
       </c>
-      <c r="J155" s="15">
+      <c r="J155" s="17">
         <v>37.272727272727273</v>
       </c>
       <c r="K155" s="15">
@@ -15501,7 +15516,7 @@
       </c>
     </row>
     <row r="156" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="18">
         <v>20</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -15528,7 +15543,7 @@
       <c r="I156" s="6">
         <v>5941</v>
       </c>
-      <c r="J156" s="15">
+      <c r="J156" s="17">
         <v>30.8</v>
       </c>
       <c r="K156" s="15">
@@ -15596,7 +15611,7 @@
       </c>
     </row>
     <row r="157" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="18">
         <v>20</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -15623,7 +15638,7 @@
       <c r="I157" s="6">
         <v>6214</v>
       </c>
-      <c r="J157" s="15">
+      <c r="J157" s="17">
         <v>34</v>
       </c>
       <c r="K157" s="15">
@@ -15691,7 +15706,7 @@
       </c>
     </row>
     <row r="158" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="18">
         <v>20</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -15718,7 +15733,7 @@
       <c r="I158" s="6">
         <v>6214</v>
       </c>
-      <c r="J158" s="15">
+      <c r="J158" s="17">
         <v>30.363636363636363</v>
       </c>
       <c r="K158" s="15">
@@ -15786,7 +15801,7 @@
       </c>
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="18">
         <v>20</v>
       </c>
       <c r="B159" s="5" t="s">
@@ -15813,7 +15828,7 @@
       <c r="I159" s="6">
         <v>6214</v>
       </c>
-      <c r="J159" s="15">
+      <c r="J159" s="17">
         <v>32.272727272727273</v>
       </c>
       <c r="K159" s="15">
@@ -15881,7 +15896,7 @@
       </c>
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="18">
         <v>20</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -15908,7 +15923,7 @@
       <c r="I160" s="6">
         <v>6214</v>
       </c>
-      <c r="J160" s="15">
+      <c r="J160" s="17">
         <v>29.454545454545453</v>
       </c>
       <c r="K160" s="15">
@@ -15976,7 +15991,7 @@
       </c>
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="18">
         <v>20</v>
       </c>
       <c r="B161" s="5" t="s">
@@ -16003,7 +16018,7 @@
       <c r="I161" s="6">
         <v>6214</v>
       </c>
-      <c r="J161" s="15">
+      <c r="J161" s="17">
         <v>28.545454545454547</v>
       </c>
       <c r="K161" s="15">
@@ -16071,7 +16086,7 @@
       </c>
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="18">
         <v>21</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -16098,7 +16113,7 @@
       <c r="I162" s="6">
         <v>7804</v>
       </c>
-      <c r="J162" s="15">
+      <c r="J162" s="17">
         <v>35.93333333333333</v>
       </c>
       <c r="K162" s="15">
@@ -16166,7 +16181,7 @@
       </c>
     </row>
     <row r="163" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="18">
         <v>21</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -16193,7 +16208,7 @@
       <c r="I163" s="6">
         <v>7776</v>
       </c>
-      <c r="J163" s="15">
+      <c r="J163" s="17">
         <v>35.466666666666669</v>
       </c>
       <c r="K163" s="15">
@@ -16261,7 +16276,7 @@
       </c>
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="18">
         <v>21</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -16288,7 +16303,7 @@
       <c r="I164" s="6">
         <v>7666</v>
       </c>
-      <c r="J164" s="15">
+      <c r="J164" s="17">
         <v>38.533333333333331</v>
       </c>
       <c r="K164" s="15">
@@ -16356,7 +16371,7 @@
       </c>
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="18">
         <v>21</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -16383,7 +16398,7 @@
       <c r="I165" s="6">
         <v>8844</v>
       </c>
-      <c r="J165" s="15">
+      <c r="J165" s="17">
         <v>38.5</v>
       </c>
       <c r="K165" s="15">
@@ -16451,7 +16466,7 @@
       </c>
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="18">
         <v>21</v>
       </c>
       <c r="B166" s="5" t="s">
@@ -16478,7 +16493,7 @@
       <c r="I166" s="6">
         <v>9348</v>
       </c>
-      <c r="J166" s="15">
+      <c r="J166" s="17">
         <v>37.176470588235297</v>
       </c>
       <c r="K166" s="15">
@@ -16546,7 +16561,7 @@
       </c>
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="18">
         <v>21</v>
       </c>
       <c r="B167" s="5" t="s">
@@ -16573,7 +16588,7 @@
       <c r="I167" s="6">
         <v>8493</v>
       </c>
-      <c r="J167" s="15">
+      <c r="J167" s="17">
         <v>38.133333333333333</v>
       </c>
       <c r="K167" s="15">
@@ -16641,7 +16656,7 @@
       </c>
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="18">
         <v>21</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -16668,7 +16683,7 @@
       <c r="I168" s="6">
         <v>7733</v>
       </c>
-      <c r="J168" s="15">
+      <c r="J168" s="17">
         <v>33.200000000000003</v>
       </c>
       <c r="K168" s="15">
@@ -16736,7 +16751,7 @@
       </c>
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="18">
         <v>21</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -16763,7 +16778,7 @@
       <c r="I169" s="6">
         <v>6788</v>
       </c>
-      <c r="J169" s="15">
+      <c r="J169" s="17">
         <v>27.571428571428573</v>
       </c>
       <c r="K169" s="15">
@@ -16831,7 +16846,7 @@
       </c>
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="18">
         <v>22</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -16858,7 +16873,7 @@
       <c r="I170" s="6">
         <v>5775</v>
       </c>
-      <c r="J170" s="15">
+      <c r="J170" s="17">
         <v>28.363636363636363</v>
       </c>
       <c r="K170" s="15">
@@ -16926,7 +16941,7 @@
       </c>
     </row>
     <row r="171" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="18">
         <v>22</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -16953,7 +16968,7 @@
       <c r="I171" s="6">
         <v>6734</v>
       </c>
-      <c r="J171" s="15">
+      <c r="J171" s="17">
         <v>35.916666666666664</v>
       </c>
       <c r="K171" s="15">
@@ -17021,7 +17036,7 @@
       </c>
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="18">
         <v>22</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -17048,7 +17063,7 @@
       <c r="I172" s="6">
         <v>6624</v>
       </c>
-      <c r="J172" s="15">
+      <c r="J172" s="17">
         <v>32.916666666666664</v>
       </c>
       <c r="K172" s="15">
@@ -17116,7 +17131,7 @@
       </c>
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="18">
         <v>22</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -17143,7 +17158,7 @@
       <c r="I173" s="6">
         <v>6624</v>
       </c>
-      <c r="J173" s="15">
+      <c r="J173" s="17">
         <v>32.166666666666664</v>
       </c>
       <c r="K173" s="15">
@@ -17211,7 +17226,7 @@
       </c>
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="18">
         <v>22</v>
       </c>
       <c r="B174" s="5" t="s">
@@ -17238,7 +17253,7 @@
       <c r="I174" s="6">
         <v>6624</v>
       </c>
-      <c r="J174" s="15">
+      <c r="J174" s="17">
         <v>30.166666666666668</v>
       </c>
       <c r="K174" s="15">
@@ -17306,7 +17321,7 @@
       </c>
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="18">
         <v>22</v>
       </c>
       <c r="B175" s="5" t="s">
@@ -17333,7 +17348,7 @@
       <c r="I175" s="6">
         <v>6624</v>
       </c>
-      <c r="J175" s="15">
+      <c r="J175" s="17">
         <v>32.416666666666664</v>
       </c>
       <c r="K175" s="15">
@@ -17401,7 +17416,7 @@
       </c>
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="18">
         <v>22</v>
       </c>
       <c r="B176" s="5" t="s">
@@ -17428,7 +17443,7 @@
       <c r="I176" s="6">
         <v>6582</v>
       </c>
-      <c r="J176" s="15">
+      <c r="J176" s="17">
         <v>30</v>
       </c>
       <c r="K176" s="15">
@@ -17496,7 +17511,7 @@
       </c>
     </row>
     <row r="177" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="18">
         <v>22</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -17523,7 +17538,7 @@
       <c r="I177" s="6">
         <v>6582</v>
       </c>
-      <c r="J177" s="15">
+      <c r="J177" s="17">
         <v>28.416666666666668</v>
       </c>
       <c r="K177" s="15">
@@ -17591,7 +17606,7 @@
       </c>
     </row>
     <row r="178" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="18">
         <v>23</v>
       </c>
       <c r="B178" s="5" t="s">
@@ -17618,7 +17633,7 @@
       <c r="I178" s="6">
         <v>8239</v>
       </c>
-      <c r="J178" s="15">
+      <c r="J178" s="17">
         <v>27.25</v>
       </c>
       <c r="K178" s="15">
@@ -17686,7 +17701,7 @@
       </c>
     </row>
     <row r="179" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="18">
         <v>23</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -17713,7 +17728,7 @@
       <c r="I179" s="6">
         <v>7166</v>
       </c>
-      <c r="J179" s="15">
+      <c r="J179" s="17">
         <v>29.384615384615383</v>
       </c>
       <c r="K179" s="15">
@@ -17781,7 +17796,7 @@
       </c>
     </row>
     <row r="180" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="18">
         <v>23</v>
       </c>
       <c r="B180" s="5" t="s">
@@ -17808,7 +17823,7 @@
       <c r="I180" s="6">
         <v>7056</v>
       </c>
-      <c r="J180" s="15">
+      <c r="J180" s="17">
         <v>30.307692307692307</v>
       </c>
       <c r="K180" s="15">
@@ -17876,7 +17891,7 @@
       </c>
     </row>
     <row r="181" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="18">
         <v>23</v>
       </c>
       <c r="B181" s="5" t="s">
@@ -17903,7 +17918,7 @@
       <c r="I181" s="6">
         <v>7407</v>
       </c>
-      <c r="J181" s="15">
+      <c r="J181" s="17">
         <v>30.285714285714285</v>
       </c>
       <c r="K181" s="15">
@@ -17971,7 +17986,7 @@
       </c>
     </row>
     <row r="182" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="18">
         <v>23</v>
       </c>
       <c r="B182" s="5" t="s">
@@ -17998,7 +18013,7 @@
       <c r="I182" s="6">
         <v>7407</v>
       </c>
-      <c r="J182" s="15">
+      <c r="J182" s="17">
         <v>30.5</v>
       </c>
       <c r="K182" s="15">
@@ -18066,7 +18081,7 @@
       </c>
     </row>
     <row r="183" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="18">
         <v>23</v>
       </c>
       <c r="B183" s="5" t="s">
@@ -18093,7 +18108,7 @@
       <c r="I183" s="6">
         <v>7056</v>
       </c>
-      <c r="J183" s="15">
+      <c r="J183" s="17">
         <v>29.846153846153847</v>
       </c>
       <c r="K183" s="15">
@@ -18161,7 +18176,7 @@
       </c>
     </row>
     <row r="184" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="18">
         <v>23</v>
       </c>
       <c r="B184" s="5" t="s">
@@ -18188,7 +18203,7 @@
       <c r="I184" s="6">
         <v>7014</v>
       </c>
-      <c r="J184" s="15">
+      <c r="J184" s="17">
         <v>26.46153846153846</v>
       </c>
       <c r="K184" s="15">
@@ -18256,7 +18271,7 @@
       </c>
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="18">
         <v>23</v>
       </c>
       <c r="B185" s="5" t="s">
@@ -18283,7 +18298,7 @@
       <c r="I185" s="6">
         <v>6930</v>
       </c>
-      <c r="J185" s="15">
+      <c r="J185" s="17">
         <v>25.846153846153847</v>
       </c>
       <c r="K185" s="15">
@@ -18351,7 +18366,7 @@
       </c>
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="18">
         <v>24</v>
       </c>
       <c r="B186" s="5" t="s">
@@ -18378,7 +18393,7 @@
       <c r="I186" s="6">
         <v>10043</v>
       </c>
-      <c r="J186" s="15">
+      <c r="J186" s="17">
         <v>35.294117647058826</v>
       </c>
       <c r="K186" s="15">
@@ -18446,7 +18461,7 @@
       </c>
     </row>
     <row r="187" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="18">
         <v>24</v>
       </c>
       <c r="B187" s="5" t="s">
@@ -18473,7 +18488,7 @@
       <c r="I187" s="6">
         <v>11002</v>
       </c>
-      <c r="J187" s="15">
+      <c r="J187" s="17">
         <v>29.444444444444443</v>
       </c>
       <c r="K187" s="15">
@@ -18541,7 +18556,7 @@
       </c>
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="18">
         <v>24</v>
       </c>
       <c r="B188" s="5" t="s">
@@ -18568,7 +18583,7 @@
       <c r="I188" s="6">
         <v>9714</v>
       </c>
-      <c r="J188" s="15">
+      <c r="J188" s="17">
         <v>32.647058823529413</v>
       </c>
       <c r="K188" s="15">
@@ -18636,7 +18651,7 @@
       </c>
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="18">
         <v>24</v>
       </c>
       <c r="B189" s="5" t="s">
@@ -18663,7 +18678,7 @@
       <c r="I189" s="6">
         <v>9987</v>
       </c>
-      <c r="J189" s="15">
+      <c r="J189" s="17">
         <v>32</v>
       </c>
       <c r="K189" s="15">
@@ -18731,7 +18746,7 @@
       </c>
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="18">
         <v>24</v>
       </c>
       <c r="B190" s="5" t="s">
@@ -18758,7 +18773,7 @@
       <c r="I190" s="6">
         <v>9324</v>
       </c>
-      <c r="J190" s="15">
+      <c r="J190" s="17">
         <v>33.823529411764703</v>
       </c>
       <c r="K190" s="15">
@@ -18826,7 +18841,7 @@
       </c>
     </row>
     <row r="191" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="18">
         <v>24</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -18853,7 +18868,7 @@
       <c r="I191" s="6">
         <v>9324</v>
       </c>
-      <c r="J191" s="15">
+      <c r="J191" s="17">
         <v>31.647058823529413</v>
       </c>
       <c r="K191" s="15">
@@ -18921,7 +18936,7 @@
       </c>
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="18">
         <v>24</v>
       </c>
       <c r="B192" s="5" t="s">
@@ -18948,7 +18963,7 @@
       <c r="I192" s="6">
         <v>9282</v>
       </c>
-      <c r="J192" s="15">
+      <c r="J192" s="17">
         <v>32.588235294117645</v>
       </c>
       <c r="K192" s="15">
@@ -19016,7 +19031,7 @@
       </c>
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="18">
         <v>24</v>
       </c>
       <c r="B193" s="5" t="s">
@@ -19043,7 +19058,7 @@
       <c r="I193" s="6">
         <v>9153</v>
       </c>
-      <c r="J193" s="15">
+      <c r="J193" s="17">
         <v>30.058823529411764</v>
       </c>
       <c r="K193" s="15">
@@ -19111,7 +19126,7 @@
       </c>
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="18">
         <v>25</v>
       </c>
       <c r="B194" s="5" t="s">
@@ -19138,7 +19153,7 @@
       <c r="I194" s="6">
         <v>10557</v>
       </c>
-      <c r="J194" s="15">
+      <c r="J194" s="17">
         <v>25.444444444444443</v>
       </c>
       <c r="K194" s="15">
@@ -19206,7 +19221,7 @@
       </c>
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="18">
         <v>25</v>
       </c>
       <c r="B195" s="5" t="s">
@@ -19233,7 +19248,7 @@
       <c r="I195" s="6">
         <v>10529</v>
       </c>
-      <c r="J195" s="15">
+      <c r="J195" s="17">
         <v>26.444444444444443</v>
       </c>
       <c r="K195" s="15">
@@ -19301,7 +19316,7 @@
       </c>
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="18">
         <v>25</v>
       </c>
       <c r="B196" s="5" t="s">
@@ -19328,7 +19343,7 @@
       <c r="I196" s="6">
         <v>9062</v>
       </c>
-      <c r="J196" s="15">
+      <c r="J196" s="17">
         <v>27.117647058823529</v>
       </c>
       <c r="K196" s="15">
@@ -19396,7 +19411,7 @@
       </c>
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="18">
         <v>25</v>
       </c>
       <c r="B197" s="5" t="s">
@@ -19423,7 +19438,7 @@
       <c r="I197" s="6">
         <v>9062</v>
       </c>
-      <c r="J197" s="15">
+      <c r="J197" s="17">
         <v>27.882352941176471</v>
       </c>
       <c r="K197" s="15">
@@ -19491,7 +19506,7 @@
       </c>
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="18">
         <v>25</v>
       </c>
       <c r="B198" s="5" t="s">
@@ -19518,7 +19533,7 @@
       <c r="I198" s="6">
         <v>8630</v>
       </c>
-      <c r="J198" s="15">
+      <c r="J198" s="17">
         <v>27</v>
       </c>
       <c r="K198" s="15">
@@ -19586,7 +19601,7 @@
       </c>
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="18">
         <v>25</v>
       </c>
       <c r="B199" s="5" t="s">
@@ -19613,7 +19628,7 @@
       <c r="I199" s="6">
         <v>7452</v>
       </c>
-      <c r="J199" s="15">
+      <c r="J199" s="17">
         <v>24.666666666666668</v>
       </c>
       <c r="K199" s="15">
@@ -19681,7 +19696,7 @@
       </c>
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="18">
         <v>25</v>
       </c>
       <c r="B200" s="5" t="s">
@@ -19708,7 +19723,7 @@
       <c r="I200" s="6">
         <v>7410</v>
       </c>
-      <c r="J200" s="15">
+      <c r="J200" s="17">
         <v>25.066666666666666</v>
       </c>
       <c r="K200" s="15">
@@ -19776,7 +19791,7 @@
       </c>
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="18">
         <v>25</v>
       </c>
       <c r="B201" s="5" t="s">
@@ -19803,7 +19818,7 @@
       <c r="I201" s="6">
         <v>7365</v>
       </c>
-      <c r="J201" s="15">
+      <c r="J201" s="17">
         <v>25.466666666666665</v>
       </c>
       <c r="K201" s="15">
@@ -19871,7 +19886,7 @@
       </c>
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="18">
         <v>26</v>
       </c>
       <c r="B202" s="5" t="s">
@@ -19898,7 +19913,7 @@
       <c r="I202" s="6">
         <v>8253</v>
       </c>
-      <c r="J202" s="15">
+      <c r="J202" s="17">
         <v>35.857142857142854</v>
       </c>
       <c r="K202" s="15">
@@ -19966,7 +19981,7 @@
       </c>
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="18">
         <v>26</v>
       </c>
       <c r="B203" s="5" t="s">
@@ -19993,7 +20008,7 @@
       <c r="I203" s="6">
         <v>8225</v>
       </c>
-      <c r="J203" s="15">
+      <c r="J203" s="17">
         <v>35.5</v>
       </c>
       <c r="K203" s="15">
@@ -20061,7 +20076,7 @@
       </c>
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="18">
         <v>26</v>
       </c>
       <c r="B204" s="5" t="s">
@@ -20088,7 +20103,7 @@
       <c r="I204" s="6">
         <v>8115</v>
       </c>
-      <c r="J204" s="15">
+      <c r="J204" s="17">
         <v>33</v>
       </c>
       <c r="K204" s="15">
@@ -20156,7 +20171,7 @@
       </c>
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="18">
         <v>26</v>
       </c>
       <c r="B205" s="5" t="s">
@@ -20183,7 +20198,7 @@
       <c r="I205" s="6">
         <v>8115</v>
       </c>
-      <c r="J205" s="15">
+      <c r="J205" s="17">
         <v>30.428571428571427</v>
       </c>
       <c r="K205" s="15">
@@ -20251,7 +20266,7 @@
       </c>
     </row>
     <row r="206" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="18">
         <v>26</v>
       </c>
       <c r="B206" s="5" t="s">
@@ -20278,7 +20293,7 @@
       <c r="I206" s="6">
         <v>8115</v>
       </c>
-      <c r="J206" s="15">
+      <c r="J206" s="17">
         <v>30.142857142857142</v>
       </c>
       <c r="K206" s="15">
@@ -20346,7 +20361,7 @@
       </c>
     </row>
     <row r="207" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="18">
         <v>26</v>
       </c>
       <c r="B207" s="5" t="s">
@@ -20373,7 +20388,7 @@
       <c r="I207" s="6">
         <v>8115</v>
       </c>
-      <c r="J207" s="15">
+      <c r="J207" s="17">
         <v>32.357142857142854</v>
       </c>
       <c r="K207" s="15">
@@ -20441,7 +20456,7 @@
       </c>
     </row>
     <row r="208" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="18">
         <v>26</v>
       </c>
       <c r="B208" s="5" t="s">
@@ -20468,7 +20483,7 @@
       <c r="I208" s="6">
         <v>8577</v>
       </c>
-      <c r="J208" s="15">
+      <c r="J208" s="17">
         <v>31.066666666666666</v>
       </c>
       <c r="K208" s="15">
@@ -20536,7 +20551,7 @@
       </c>
     </row>
     <row r="209" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="18">
         <v>26</v>
       </c>
       <c r="B209" s="5" t="s">
@@ -20563,7 +20578,7 @@
       <c r="I209" s="6">
         <v>8028</v>
       </c>
-      <c r="J209" s="15">
+      <c r="J209" s="17">
         <v>29.5</v>
       </c>
       <c r="K209" s="15">
@@ -20631,7 +20646,7 @@
       </c>
     </row>
     <row r="210" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="18">
         <v>27</v>
       </c>
       <c r="B210" s="5" t="s">
@@ -20658,7 +20673,7 @@
       <c r="I210" s="6">
         <v>9316</v>
       </c>
-      <c r="J210" s="15">
+      <c r="J210" s="17">
         <v>32.352941176470587</v>
       </c>
       <c r="K210" s="15">
@@ -20726,7 +20741,7 @@
       </c>
     </row>
     <row r="211" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="18">
         <v>27</v>
       </c>
       <c r="B211" s="5" t="s">
@@ -20753,7 +20768,7 @@
       <c r="I211" s="6">
         <v>9288</v>
       </c>
-      <c r="J211" s="15">
+      <c r="J211" s="17">
         <v>33.764705882352942</v>
       </c>
       <c r="K211" s="15">
@@ -20821,7 +20836,7 @@
       </c>
     </row>
     <row r="212" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="18">
         <v>27</v>
       </c>
       <c r="B212" s="5" t="s">
@@ -20848,7 +20863,7 @@
       <c r="I212" s="6">
         <v>7687</v>
       </c>
-      <c r="J212" s="15">
+      <c r="J212" s="17">
         <v>29.933333333333334</v>
       </c>
       <c r="K212" s="15">
@@ -20916,7 +20931,7 @@
       </c>
     </row>
     <row r="213" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="18">
         <v>27</v>
       </c>
       <c r="B213" s="5" t="s">
@@ -20943,7 +20958,7 @@
       <c r="I213" s="6">
         <v>8191</v>
       </c>
-      <c r="J213" s="15">
+      <c r="J213" s="17">
         <v>29.5</v>
       </c>
       <c r="K213" s="15">
@@ -21011,7 +21026,7 @@
       </c>
     </row>
     <row r="214" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="18">
         <v>27</v>
       </c>
       <c r="B214" s="5" t="s">
@@ -21038,7 +21053,7 @@
       <c r="I214" s="6">
         <v>8527</v>
       </c>
-      <c r="J214" s="15">
+      <c r="J214" s="17">
         <v>28.764705882352942</v>
       </c>
       <c r="K214" s="15">
@@ -21106,7 +21121,7 @@
       </c>
     </row>
     <row r="215" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="18">
         <v>27</v>
       </c>
       <c r="B215" s="5" t="s">
@@ -21133,7 +21148,7 @@
       <c r="I215" s="6">
         <v>8527</v>
       </c>
-      <c r="J215" s="15">
+      <c r="J215" s="17">
         <v>29.470588235294116</v>
       </c>
       <c r="K215" s="15">
@@ -21201,7 +21216,7 @@
       </c>
     </row>
     <row r="216" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="18">
         <v>27</v>
       </c>
       <c r="B216" s="5" t="s">
@@ -21228,7 +21243,7 @@
       <c r="I216" s="6">
         <v>8023</v>
       </c>
-      <c r="J216" s="15">
+      <c r="J216" s="17">
         <v>30.375</v>
       </c>
       <c r="K216" s="15">
@@ -21296,7 +21311,7 @@
       </c>
     </row>
     <row r="217" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="18">
         <v>27</v>
       </c>
       <c r="B217" s="5" t="s">
@@ -21323,7 +21338,7 @@
       <c r="I217" s="6">
         <v>7894</v>
       </c>
-      <c r="J217" s="15">
+      <c r="J217" s="17">
         <v>29.4375</v>
       </c>
       <c r="K217" s="15">
@@ -21391,7 +21406,7 @@
       </c>
     </row>
     <row r="218" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="18">
         <v>28</v>
       </c>
       <c r="B218" s="5" t="s">
@@ -21418,7 +21433,7 @@
       <c r="I218" s="6">
         <v>8116</v>
       </c>
-      <c r="J218" s="15">
+      <c r="J218" s="17">
         <v>29.666666666666668</v>
       </c>
       <c r="K218" s="15">
@@ -21486,7 +21501,7 @@
       </c>
     </row>
     <row r="219" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="18">
         <v>28</v>
       </c>
       <c r="B219" s="5" t="s">
@@ -21513,7 +21528,7 @@
       <c r="I219" s="6">
         <v>8088</v>
       </c>
-      <c r="J219" s="15">
+      <c r="J219" s="17">
         <v>31.333333333333332</v>
       </c>
       <c r="K219" s="15">
@@ -21581,7 +21596,7 @@
       </c>
     </row>
     <row r="220" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="18">
         <v>28</v>
       </c>
       <c r="B220" s="5" t="s">
@@ -21608,7 +21623,7 @@
       <c r="I220" s="6">
         <v>7642</v>
       </c>
-      <c r="J220" s="15">
+      <c r="J220" s="17">
         <v>29.214285714285715</v>
       </c>
       <c r="K220" s="15">
@@ -21676,7 +21691,7 @@
       </c>
     </row>
     <row r="221" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="18">
         <v>28</v>
       </c>
       <c r="B221" s="5" t="s">
@@ -21703,7 +21718,7 @@
       <c r="I221" s="6">
         <v>7642</v>
       </c>
-      <c r="J221" s="15">
+      <c r="J221" s="17">
         <v>30.071428571428573</v>
       </c>
       <c r="K221" s="15">
@@ -21771,7 +21786,7 @@
       </c>
     </row>
     <row r="222" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="18">
         <v>28</v>
       </c>
       <c r="B222" s="5" t="s">
@@ -21798,7 +21813,7 @@
       <c r="I222" s="6">
         <v>7642</v>
       </c>
-      <c r="J222" s="15">
+      <c r="J222" s="17">
         <v>32</v>
       </c>
       <c r="K222" s="15">
@@ -21866,7 +21881,7 @@
       </c>
     </row>
     <row r="223" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="18">
         <v>28</v>
       </c>
       <c r="B223" s="5" t="s">
@@ -21893,7 +21908,7 @@
       <c r="I223" s="6">
         <v>7887</v>
       </c>
-      <c r="J223" s="15">
+      <c r="J223" s="17">
         <v>29.5</v>
       </c>
       <c r="K223" s="15">
@@ -21961,7 +21976,7 @@
       </c>
     </row>
     <row r="224" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="18">
         <v>28</v>
       </c>
       <c r="B224" s="5" t="s">
@@ -21988,7 +22003,7 @@
       <c r="I224" s="6">
         <v>7845</v>
       </c>
-      <c r="J224" s="15">
+      <c r="J224" s="17">
         <v>32.285714285714285</v>
       </c>
       <c r="K224" s="15">
@@ -22056,7 +22071,7 @@
       </c>
     </row>
     <row r="225" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="18">
         <v>28</v>
       </c>
       <c r="B225" s="5" t="s">
@@ -22083,7 +22098,7 @@
       <c r="I225" s="6">
         <v>6594</v>
       </c>
-      <c r="J225" s="15">
+      <c r="J225" s="17">
         <v>33.666666666666664</v>
       </c>
       <c r="K225" s="15">
@@ -22151,7 +22166,7 @@
       </c>
     </row>
     <row r="226" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="18">
         <v>29</v>
       </c>
       <c r="B226" s="5" t="s">
@@ -22178,7 +22193,7 @@
       <c r="I226" s="6">
         <v>10557</v>
       </c>
-      <c r="J226" s="15">
+      <c r="J226" s="17">
         <v>29.611111111111111</v>
       </c>
       <c r="K226" s="15">
@@ -22246,7 +22261,7 @@
       </c>
     </row>
     <row r="227" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="18">
         <v>29</v>
       </c>
       <c r="B227" s="5" t="s">
@@ -22273,7 +22288,7 @@
       <c r="I227" s="6">
         <v>9351</v>
       </c>
-      <c r="J227" s="15">
+      <c r="J227" s="17">
         <v>29.352941176470587</v>
       </c>
       <c r="K227" s="15">
@@ -22341,7 +22356,7 @@
       </c>
     </row>
     <row r="228" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="18">
         <v>29</v>
       </c>
       <c r="B228" s="5" t="s">
@@ -22368,7 +22383,7 @@
       <c r="I228" s="6">
         <v>9241</v>
       </c>
-      <c r="J228" s="15">
+      <c r="J228" s="17">
         <v>27.941176470588236</v>
       </c>
       <c r="K228" s="15">
@@ -22436,7 +22451,7 @@
       </c>
     </row>
     <row r="229" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="18">
         <v>29</v>
       </c>
       <c r="B229" s="5" t="s">
@@ -22463,7 +22478,7 @@
       <c r="I229" s="6">
         <v>9241</v>
       </c>
-      <c r="J229" s="15">
+      <c r="J229" s="17">
         <v>28.588235294117649</v>
       </c>
       <c r="K229" s="15">
@@ -22531,7 +22546,7 @@
       </c>
     </row>
     <row r="230" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="18">
         <v>29</v>
       </c>
       <c r="B230" s="5" t="s">
@@ -22558,7 +22573,7 @@
       <c r="I230" s="6">
         <v>9241</v>
       </c>
-      <c r="J230" s="15">
+      <c r="J230" s="17">
         <v>27.529411764705884</v>
       </c>
       <c r="K230" s="15">
@@ -22626,7 +22641,7 @@
       </c>
     </row>
     <row r="231" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="18">
         <v>29</v>
       </c>
       <c r="B231" s="5" t="s">
@@ -22653,7 +22668,7 @@
       <c r="I231" s="6">
         <v>9241</v>
       </c>
-      <c r="J231" s="15">
+      <c r="J231" s="17">
         <v>29.294117647058822</v>
       </c>
       <c r="K231" s="15">
@@ -22721,7 +22736,7 @@
       </c>
     </row>
     <row r="232" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="18">
         <v>29</v>
       </c>
       <c r="B232" s="5" t="s">
@@ -22748,7 +22763,7 @@
       <c r="I232" s="6">
         <v>9199</v>
       </c>
-      <c r="J232" s="15">
+      <c r="J232" s="17">
         <v>26</v>
       </c>
       <c r="K232" s="15">
@@ -22816,7 +22831,7 @@
       </c>
     </row>
     <row r="233" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="18">
         <v>29</v>
       </c>
       <c r="B233" s="5" t="s">
@@ -22843,7 +22858,7 @@
       <c r="I233" s="6">
         <v>9070</v>
       </c>
-      <c r="J233" s="15">
+      <c r="J233" s="17">
         <v>26.117647058823529</v>
       </c>
       <c r="K233" s="15">
@@ -22911,7 +22926,7 @@
       </c>
     </row>
     <row r="234" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="18">
         <v>30</v>
       </c>
       <c r="B234" s="5" t="s">
@@ -22938,7 +22953,7 @@
       <c r="I234" s="6">
         <v>11856</v>
       </c>
-      <c r="J234" s="15">
+      <c r="J234" s="17">
         <v>26.25</v>
       </c>
       <c r="K234" s="15">
@@ -23006,7 +23021,7 @@
       </c>
     </row>
     <row r="235" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="18">
         <v>30</v>
       </c>
       <c r="B235" s="5" t="s">
@@ -23033,7 +23048,7 @@
       <c r="I235" s="6">
         <v>10409</v>
       </c>
-      <c r="J235" s="15">
+      <c r="J235" s="17">
         <v>27.5</v>
       </c>
       <c r="K235" s="15">
@@ -23101,7 +23116,7 @@
       </c>
     </row>
     <row r="236" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="18">
         <v>30</v>
       </c>
       <c r="B236" s="5" t="s">
@@ -23128,7 +23143,7 @@
       <c r="I236" s="6">
         <v>10299</v>
       </c>
-      <c r="J236" s="15">
+      <c r="J236" s="17">
         <v>26.5</v>
       </c>
       <c r="K236" s="15">
@@ -23196,7 +23211,7 @@
       </c>
     </row>
     <row r="237" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="18">
         <v>30</v>
       </c>
       <c r="B237" s="5" t="s">
@@ -23223,7 +23238,7 @@
       <c r="I237" s="6">
         <v>10299</v>
       </c>
-      <c r="J237" s="15">
+      <c r="J237" s="17">
         <v>25.277777777777779</v>
       </c>
       <c r="K237" s="15">
@@ -23291,7 +23306,7 @@
       </c>
     </row>
     <row r="238" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="18">
         <v>30</v>
       </c>
       <c r="B238" s="5" t="s">
@@ -23318,7 +23333,7 @@
       <c r="I238" s="6">
         <v>10299</v>
       </c>
-      <c r="J238" s="15">
+      <c r="J238" s="17">
         <v>22.944444444444443</v>
       </c>
       <c r="K238" s="15">
@@ -23386,7 +23401,7 @@
       </c>
     </row>
     <row r="239" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="18">
         <v>30</v>
       </c>
       <c r="B239" s="5" t="s">
@@ -23413,7 +23428,7 @@
       <c r="I239" s="6">
         <v>10299</v>
       </c>
-      <c r="J239" s="15">
+      <c r="J239" s="17">
         <v>24.333333333333332</v>
       </c>
       <c r="K239" s="15">
@@ -23481,7 +23496,7 @@
       </c>
     </row>
     <row r="240" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="18">
         <v>30</v>
       </c>
       <c r="B240" s="5" t="s">
@@ -23508,7 +23523,7 @@
       <c r="I240" s="6">
         <v>9121</v>
       </c>
-      <c r="J240" s="15">
+      <c r="J240" s="17">
         <v>25.705882352941178</v>
       </c>
       <c r="K240" s="15">
@@ -23576,7 +23591,7 @@
       </c>
     </row>
     <row r="241" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="18">
         <v>30</v>
       </c>
       <c r="B241" s="5" t="s">
@@ -23603,7 +23618,7 @@
       <c r="I241" s="6">
         <v>8770</v>
       </c>
-      <c r="J241" s="15">
+      <c r="J241" s="17">
         <v>24.6875</v>
       </c>
       <c r="K241" s="15">
@@ -23671,7 +23686,7 @@
       </c>
     </row>
     <row r="242" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="18">
         <v>31</v>
       </c>
       <c r="B242" s="5" t="s">
@@ -23698,7 +23713,7 @@
       <c r="I242" s="6">
         <v>7109</v>
       </c>
-      <c r="J242" s="15">
+      <c r="J242" s="17">
         <v>30.46153846153846</v>
       </c>
       <c r="K242" s="15">
@@ -23766,7 +23781,7 @@
       </c>
     </row>
     <row r="243" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="18">
         <v>31</v>
       </c>
       <c r="B243" s="5" t="s">
@@ -23793,7 +23808,7 @@
       <c r="I243" s="6">
         <v>7081</v>
       </c>
-      <c r="J243" s="15">
+      <c r="J243" s="17">
         <v>28</v>
       </c>
       <c r="K243" s="15">
@@ -23861,7 +23876,7 @@
       </c>
     </row>
     <row r="244" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="18">
         <v>31</v>
       </c>
       <c r="B244" s="5" t="s">
@@ -23888,7 +23903,7 @@
       <c r="I244" s="6">
         <v>6971</v>
       </c>
-      <c r="J244" s="15">
+      <c r="J244" s="17">
         <v>28.307692307692307</v>
       </c>
       <c r="K244" s="15">
@@ -23956,7 +23971,7 @@
       </c>
     </row>
     <row r="245" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="18">
         <v>31</v>
       </c>
       <c r="B245" s="5" t="s">
@@ -23983,7 +23998,7 @@
       <c r="I245" s="6">
         <v>6971</v>
       </c>
-      <c r="J245" s="15">
+      <c r="J245" s="17">
         <v>31.615384615384617</v>
       </c>
       <c r="K245" s="15">
@@ -24051,7 +24066,7 @@
       </c>
     </row>
     <row r="246" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="18">
         <v>31</v>
       </c>
       <c r="B246" s="5" t="s">
@@ -24078,7 +24093,7 @@
       <c r="I246" s="6">
         <v>6971</v>
       </c>
-      <c r="J246" s="15">
+      <c r="J246" s="17">
         <v>32.615384615384613</v>
       </c>
       <c r="K246" s="15">
@@ -24146,7 +24161,7 @@
       </c>
     </row>
     <row r="247" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="18">
         <v>31</v>
       </c>
       <c r="B247" s="5" t="s">
@@ -24173,7 +24188,7 @@
       <c r="I247" s="6">
         <v>6831</v>
       </c>
-      <c r="J247" s="15">
+      <c r="J247" s="17">
         <v>28.416666666666668</v>
       </c>
       <c r="K247" s="15">
@@ -24241,7 +24256,7 @@
       </c>
     </row>
     <row r="248" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="18">
         <v>31</v>
       </c>
       <c r="B248" s="5" t="s">
@@ -24268,7 +24283,7 @@
       <c r="I248" s="6">
         <v>6831</v>
       </c>
-      <c r="J248" s="15">
+      <c r="J248" s="17">
         <v>26.083333333333332</v>
       </c>
       <c r="K248" s="15">
@@ -24336,7 +24351,7 @@
       </c>
     </row>
     <row r="249" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="18">
         <v>31</v>
       </c>
       <c r="B249" s="5" t="s">
@@ -24363,7 +24378,7 @@
       <c r="I249" s="6">
         <v>6831</v>
       </c>
-      <c r="J249" s="15">
+      <c r="J249" s="17">
         <v>25.5</v>
       </c>
       <c r="K249" s="15">
@@ -24431,7 +24446,7 @@
       </c>
     </row>
     <row r="250" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="18">
         <v>32</v>
       </c>
       <c r="B250" s="5" t="s">
@@ -24458,7 +24473,7 @@
       <c r="I250" s="6">
         <v>9237</v>
       </c>
-      <c r="J250" s="15">
+      <c r="J250" s="17">
         <v>28.25</v>
       </c>
       <c r="K250" s="15">
@@ -24526,7 +24541,7 @@
       </c>
     </row>
     <row r="251" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="18">
         <v>32</v>
       </c>
       <c r="B251" s="5" t="s">
@@ -24553,7 +24568,7 @@
       <c r="I251" s="6">
         <v>8705</v>
       </c>
-      <c r="J251" s="15">
+      <c r="J251" s="17">
         <v>27.2</v>
       </c>
       <c r="K251" s="15">
@@ -24621,7 +24636,7 @@
       </c>
     </row>
     <row r="252" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="18">
         <v>32</v>
       </c>
       <c r="B252" s="5" t="s">
@@ -24648,7 +24663,7 @@
       <c r="I252" s="6">
         <v>8595</v>
       </c>
-      <c r="J252" s="15">
+      <c r="J252" s="17">
         <v>26.666666666666668</v>
       </c>
       <c r="K252" s="15">
@@ -24716,7 +24731,7 @@
       </c>
     </row>
     <row r="253" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="18">
         <v>32</v>
       </c>
       <c r="B253" s="5" t="s">
@@ -24743,7 +24758,7 @@
       <c r="I253" s="6">
         <v>8595</v>
       </c>
-      <c r="J253" s="15">
+      <c r="J253" s="17">
         <v>26.466666666666665</v>
       </c>
       <c r="K253" s="15">
@@ -24811,7 +24826,7 @@
       </c>
     </row>
     <row r="254" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="18">
         <v>32</v>
       </c>
       <c r="B254" s="5" t="s">
@@ -24838,7 +24853,7 @@
       <c r="I254" s="6">
         <v>9099</v>
       </c>
-      <c r="J254" s="15">
+      <c r="J254" s="17">
         <v>26.5625</v>
       </c>
       <c r="K254" s="15">
@@ -24906,7 +24921,7 @@
       </c>
     </row>
     <row r="255" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="18">
         <v>32</v>
       </c>
       <c r="B255" s="5" t="s">
@@ -24933,7 +24948,7 @@
       <c r="I255" s="6">
         <v>8595</v>
       </c>
-      <c r="J255" s="15">
+      <c r="J255" s="17">
         <v>27.066666666666666</v>
       </c>
       <c r="K255" s="15">
@@ -25001,7 +25016,7 @@
       </c>
     </row>
     <row r="256" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="18">
         <v>32</v>
       </c>
       <c r="B256" s="5" t="s">
@@ -25028,7 +25043,7 @@
       <c r="I256" s="6">
         <v>8553</v>
       </c>
-      <c r="J256" s="15">
+      <c r="J256" s="17">
         <v>27.2</v>
       </c>
       <c r="K256" s="15">
@@ -25096,7 +25111,7 @@
       </c>
     </row>
     <row r="257" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="18">
         <v>32</v>
       </c>
       <c r="B257" s="5" t="s">
@@ -25123,7 +25138,7 @@
       <c r="I257" s="6">
         <v>8508</v>
       </c>
-      <c r="J257" s="15">
+      <c r="J257" s="17">
         <v>27.066666666666666</v>
       </c>
       <c r="K257" s="15">
@@ -25191,7 +25206,7 @@
       </c>
     </row>
     <row r="258" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="18">
         <v>33</v>
       </c>
       <c r="B258" s="5" t="s">
@@ -25218,7 +25233,7 @@
       <c r="I258" s="6">
         <v>9111</v>
       </c>
-      <c r="J258" s="15">
+      <c r="J258" s="17">
         <v>31.1875</v>
       </c>
       <c r="K258" s="15">
@@ -25286,7 +25301,7 @@
       </c>
     </row>
     <row r="259" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="A259" s="18">
         <v>33</v>
       </c>
       <c r="B259" s="5" t="s">
@@ -25313,7 +25328,7 @@
       <c r="I259" s="6">
         <v>9083</v>
       </c>
-      <c r="J259" s="15">
+      <c r="J259" s="17">
         <v>29.8125</v>
       </c>
       <c r="K259" s="15">
@@ -25381,7 +25396,7 @@
       </c>
     </row>
     <row r="260" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="18">
         <v>33</v>
       </c>
       <c r="B260" s="5" t="s">
@@ -25408,7 +25423,7 @@
       <c r="I260" s="6">
         <v>8469</v>
       </c>
-      <c r="J260" s="15">
+      <c r="J260" s="17">
         <v>34.06666666666667</v>
       </c>
       <c r="K260" s="15">
@@ -25476,7 +25491,7 @@
       </c>
     </row>
     <row r="261" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="18">
         <v>33</v>
       </c>
       <c r="B261" s="5" t="s">
@@ -25503,7 +25518,7 @@
       <c r="I261" s="6">
         <v>8469</v>
       </c>
-      <c r="J261" s="15">
+      <c r="J261" s="17">
         <v>32.866666666666667</v>
       </c>
       <c r="K261" s="15">
@@ -25571,7 +25586,7 @@
       </c>
     </row>
     <row r="262" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="18">
         <v>33</v>
       </c>
       <c r="B262" s="5" t="s">
@@ -25598,7 +25613,7 @@
       <c r="I262" s="6">
         <v>8973</v>
       </c>
-      <c r="J262" s="15">
+      <c r="J262" s="17">
         <v>31.9375</v>
       </c>
       <c r="K262" s="15">
@@ -25666,7 +25681,7 @@
       </c>
     </row>
     <row r="263" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="18">
         <v>33</v>
       </c>
       <c r="B263" s="5" t="s">
@@ -25693,7 +25708,7 @@
       <c r="I263" s="6">
         <v>8973</v>
       </c>
-      <c r="J263" s="15">
+      <c r="J263" s="17">
         <v>30.6875</v>
       </c>
       <c r="K263" s="15">
@@ -25761,7 +25776,7 @@
       </c>
     </row>
     <row r="264" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="18">
         <v>33</v>
       </c>
       <c r="B264" s="5" t="s">
@@ -25788,7 +25803,7 @@
       <c r="I264" s="6">
         <v>8427</v>
       </c>
-      <c r="J264" s="15">
+      <c r="J264" s="17">
         <v>31.733333333333334</v>
       </c>
       <c r="K264" s="15">
@@ -25856,7 +25871,7 @@
       </c>
     </row>
     <row r="265" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="18">
         <v>33</v>
       </c>
       <c r="B265" s="5" t="s">
@@ -25883,7 +25898,7 @@
       <c r="I265" s="6">
         <v>8574</v>
       </c>
-      <c r="J265" s="15">
+      <c r="J265" s="17">
         <v>29.066666666666666</v>
       </c>
       <c r="K265" s="15">
@@ -25951,7 +25966,7 @@
       </c>
     </row>
     <row r="266" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="18">
         <v>34</v>
       </c>
       <c r="B266" s="5" t="s">
@@ -25978,7 +25993,7 @@
       <c r="I266" s="6">
         <v>9512</v>
       </c>
-      <c r="J266" s="15">
+      <c r="J266" s="17">
         <v>28.266666666666666</v>
       </c>
       <c r="K266" s="15">
@@ -26046,7 +26061,7 @@
       </c>
     </row>
     <row r="267" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="18">
         <v>34</v>
       </c>
       <c r="B267" s="5" t="s">
@@ -26073,7 +26088,7 @@
       <c r="I267" s="6">
         <v>9484</v>
       </c>
-      <c r="J267" s="15">
+      <c r="J267" s="17">
         <v>25.666666666666668</v>
       </c>
       <c r="K267" s="15">
@@ -26141,7 +26156,7 @@
       </c>
     </row>
     <row r="268" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="18">
         <v>34</v>
       </c>
       <c r="B268" s="5" t="s">
@@ -26168,7 +26183,7 @@
       <c r="I268" s="6">
         <v>9564</v>
       </c>
-      <c r="J268" s="15">
+      <c r="J268" s="17">
         <v>29.5625</v>
       </c>
       <c r="K268" s="15">
@@ -26236,7 +26251,7 @@
       </c>
     </row>
     <row r="269" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="18">
         <v>34</v>
       </c>
       <c r="B269" s="5" t="s">
@@ -26263,7 +26278,7 @@
       <c r="I269" s="6">
         <v>9564</v>
       </c>
-      <c r="J269" s="15">
+      <c r="J269" s="17">
         <v>26.375</v>
       </c>
       <c r="K269" s="15">
@@ -26331,7 +26346,7 @@
       </c>
     </row>
     <row r="270" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="18">
         <v>34</v>
       </c>
       <c r="B270" s="5" t="s">
@@ -26358,7 +26373,7 @@
       <c r="I270" s="6">
         <v>9564</v>
       </c>
-      <c r="J270" s="15">
+      <c r="J270" s="17">
         <v>24.3125</v>
       </c>
       <c r="K270" s="15">
@@ -26426,7 +26441,7 @@
       </c>
     </row>
     <row r="271" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="18">
         <v>34</v>
       </c>
       <c r="B271" s="5" t="s">
@@ -26453,7 +26468,7 @@
       <c r="I271" s="6">
         <v>9564</v>
       </c>
-      <c r="J271" s="15">
+      <c r="J271" s="17">
         <v>27.1875</v>
       </c>
       <c r="K271" s="15">
@@ -26521,7 +26536,7 @@
       </c>
     </row>
     <row r="272" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="18">
         <v>34</v>
       </c>
       <c r="B272" s="5" t="s">
@@ -26548,7 +26563,7 @@
       <c r="I272" s="6">
         <v>9522</v>
       </c>
-      <c r="J272" s="15">
+      <c r="J272" s="17">
         <v>26.625</v>
       </c>
       <c r="K272" s="15">
@@ -26616,7 +26631,7 @@
       </c>
     </row>
     <row r="273" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="18">
         <v>34</v>
       </c>
       <c r="B273" s="5" t="s">
@@ -26643,7 +26658,7 @@
       <c r="I273" s="6">
         <v>9438</v>
       </c>
-      <c r="J273" s="15">
+      <c r="J273" s="17">
         <v>25.6875</v>
       </c>
       <c r="K273" s="15">
@@ -26711,7 +26726,7 @@
       </c>
     </row>
     <row r="274" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="18">
         <v>35</v>
       </c>
       <c r="B274" s="5" t="s">
@@ -26738,7 +26753,7 @@
       <c r="I274" s="6">
         <v>8161</v>
       </c>
-      <c r="J274" s="15">
+      <c r="J274" s="17">
         <v>28.1875</v>
       </c>
       <c r="K274" s="15">
@@ -26806,7 +26821,7 @@
       </c>
     </row>
     <row r="275" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="18">
         <v>35</v>
       </c>
       <c r="B275" s="5" t="s">
@@ -26833,7 +26848,7 @@
       <c r="I275" s="6">
         <v>8637</v>
       </c>
-      <c r="J275" s="15">
+      <c r="J275" s="17">
         <v>26.529411764705884</v>
       </c>
       <c r="K275" s="15">
@@ -26901,7 +26916,7 @@
       </c>
     </row>
     <row r="276" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="18">
         <v>35</v>
       </c>
       <c r="B276" s="5" t="s">
@@ -26928,7 +26943,7 @@
       <c r="I276" s="6">
         <v>8527</v>
       </c>
-      <c r="J276" s="15">
+      <c r="J276" s="17">
         <v>24.529411764705884</v>
       </c>
       <c r="K276" s="15">
@@ -26996,7 +27011,7 @@
       </c>
     </row>
     <row r="277" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="18">
         <v>35</v>
       </c>
       <c r="B277" s="5" t="s">
@@ -27023,7 +27038,7 @@
       <c r="I277" s="6">
         <v>8527</v>
       </c>
-      <c r="J277" s="15">
+      <c r="J277" s="17">
         <v>23.470588235294116</v>
       </c>
       <c r="K277" s="15">
@@ -27091,7 +27106,7 @@
       </c>
     </row>
     <row r="278" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="18">
         <v>35</v>
       </c>
       <c r="B278" s="5" t="s">
@@ -27118,7 +27133,7 @@
       <c r="I278" s="6">
         <v>8527</v>
       </c>
-      <c r="J278" s="15">
+      <c r="J278" s="17">
         <v>24.941176470588236</v>
       </c>
       <c r="K278" s="15">
@@ -27186,7 +27201,7 @@
       </c>
     </row>
     <row r="279" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="18">
         <v>35</v>
       </c>
       <c r="B279" s="5" t="s">
@@ -27213,7 +27228,7 @@
       <c r="I279" s="6">
         <v>8527</v>
       </c>
-      <c r="J279" s="15">
+      <c r="J279" s="17">
         <v>27.058823529411764</v>
       </c>
       <c r="K279" s="15">
@@ -27281,7 +27296,7 @@
       </c>
     </row>
     <row r="280" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="18">
         <v>35</v>
       </c>
       <c r="B280" s="5" t="s">
@@ -27308,7 +27323,7 @@
       <c r="I280" s="6">
         <v>8527</v>
       </c>
-      <c r="J280" s="15">
+      <c r="J280" s="17">
         <v>26.941176470588236</v>
       </c>
       <c r="K280" s="15">
@@ -27376,7 +27391,7 @@
       </c>
     </row>
     <row r="281" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="18">
         <v>35</v>
       </c>
       <c r="B281" s="5" t="s">
@@ -27403,7 +27418,7 @@
       <c r="I281" s="6">
         <v>8398</v>
       </c>
-      <c r="J281" s="15">
+      <c r="J281" s="17">
         <v>26.647058823529413</v>
       </c>
       <c r="K281" s="15">
@@ -27471,7 +27486,7 @@
       </c>
     </row>
     <row r="282" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="18">
         <v>36</v>
       </c>
       <c r="B282" s="5" t="s">
@@ -27498,7 +27513,7 @@
       <c r="I282" s="6">
         <v>7408</v>
       </c>
-      <c r="J282" s="15">
+      <c r="J282" s="17">
         <v>30.142857142857142</v>
       </c>
       <c r="K282" s="15">
@@ -27566,7 +27581,7 @@
       </c>
     </row>
     <row r="283" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="18">
         <v>36</v>
       </c>
       <c r="B283" s="5" t="s">
@@ -27593,7 +27608,7 @@
       <c r="I283" s="6">
         <v>7408</v>
       </c>
-      <c r="J283" s="15">
+      <c r="J283" s="17">
         <v>23.357142857142858</v>
       </c>
       <c r="K283" s="15">
@@ -27661,7 +27676,7 @@
       </c>
     </row>
     <row r="284" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="18">
         <v>36</v>
       </c>
       <c r="B284" s="5" t="s">
@@ -27688,7 +27703,7 @@
       <c r="I284" s="6">
         <v>7025</v>
       </c>
-      <c r="J284" s="15">
+      <c r="J284" s="17">
         <v>25.46153846153846</v>
       </c>
       <c r="K284" s="15">
@@ -27756,7 +27771,7 @@
       </c>
     </row>
     <row r="285" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="18">
         <v>36</v>
       </c>
       <c r="B285" s="5" t="s">
@@ -27783,7 +27798,7 @@
       <c r="I285" s="6">
         <v>7529</v>
       </c>
-      <c r="J285" s="15">
+      <c r="J285" s="17">
         <v>27.714285714285715</v>
       </c>
       <c r="K285" s="15">
@@ -27851,7 +27866,7 @@
       </c>
     </row>
     <row r="286" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="18">
         <v>36</v>
       </c>
       <c r="B286" s="5" t="s">
@@ -27878,7 +27893,7 @@
       <c r="I286" s="6">
         <v>7025</v>
       </c>
-      <c r="J286" s="15">
+      <c r="J286" s="17">
         <v>24.846153846153847</v>
       </c>
       <c r="K286" s="15">
@@ -27946,7 +27961,7 @@
       </c>
     </row>
     <row r="287" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="18">
         <v>36</v>
       </c>
       <c r="B287" s="5" t="s">
@@ -27973,7 +27988,7 @@
       <c r="I287" s="6">
         <v>7025</v>
       </c>
-      <c r="J287" s="15">
+      <c r="J287" s="17">
         <v>25.23076923076923</v>
       </c>
       <c r="K287" s="15">
@@ -28041,7 +28056,7 @@
       </c>
     </row>
     <row r="288" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="18">
         <v>36</v>
       </c>
       <c r="B288" s="5" t="s">
@@ -28068,7 +28083,7 @@
       <c r="I288" s="6">
         <v>6983</v>
       </c>
-      <c r="J288" s="15">
+      <c r="J288" s="17">
         <v>25.384615384615383</v>
       </c>
       <c r="K288" s="15">
@@ -28136,7 +28151,7 @@
       </c>
     </row>
     <row r="289" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="18">
         <v>36</v>
       </c>
       <c r="B289" s="5" t="s">
@@ -28163,7 +28178,7 @@
       <c r="I289" s="6">
         <v>6938</v>
       </c>
-      <c r="J289" s="15">
+      <c r="J289" s="17">
         <v>26.846153846153847</v>
       </c>
       <c r="K289" s="15">
@@ -28231,7 +28246,7 @@
       </c>
     </row>
     <row r="290" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="18">
         <v>37</v>
       </c>
       <c r="B290" s="5" t="s">
@@ -28258,7 +28273,7 @@
       <c r="I290" s="6">
         <v>8997</v>
       </c>
-      <c r="J290" s="15">
+      <c r="J290" s="17">
         <v>27.882352941176471</v>
       </c>
       <c r="K290" s="15">
@@ -28326,7 +28341,7 @@
       </c>
     </row>
     <row r="291" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="18">
         <v>37</v>
       </c>
       <c r="B291" s="5" t="s">
@@ -28353,7 +28368,7 @@
       <c r="I291" s="6">
         <v>8969</v>
       </c>
-      <c r="J291" s="15">
+      <c r="J291" s="17">
         <v>26.411764705882351</v>
       </c>
       <c r="K291" s="15">
@@ -28421,7 +28436,7 @@
       </c>
     </row>
     <row r="292" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="18">
         <v>37</v>
       </c>
       <c r="B292" s="5" t="s">
@@ -28448,7 +28463,7 @@
       <c r="I292" s="6">
         <v>9602</v>
       </c>
-      <c r="J292" s="15">
+      <c r="J292" s="17">
         <v>26</v>
       </c>
       <c r="K292" s="15">
@@ -28516,7 +28531,7 @@
       </c>
     </row>
     <row r="293" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="18">
         <v>37</v>
       </c>
       <c r="B293" s="5" t="s">
@@ -28543,7 +28558,7 @@
       <c r="I293" s="6">
         <v>9329</v>
       </c>
-      <c r="J293" s="15">
+      <c r="J293" s="17">
         <v>25.375</v>
       </c>
       <c r="K293" s="15">
@@ -28611,7 +28626,7 @@
       </c>
     </row>
     <row r="294" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="18">
         <v>37</v>
       </c>
       <c r="B294" s="5" t="s">
@@ -28638,7 +28653,7 @@
       <c r="I294" s="6">
         <v>9602</v>
       </c>
-      <c r="J294" s="15">
+      <c r="J294" s="17">
         <v>24.647058823529413</v>
       </c>
       <c r="K294" s="15">
@@ -28706,7 +28721,7 @@
       </c>
     </row>
     <row r="295" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="18">
         <v>37</v>
       </c>
       <c r="B295" s="5" t="s">
@@ -28733,7 +28748,7 @@
       <c r="I295" s="6">
         <v>9602</v>
       </c>
-      <c r="J295" s="15">
+      <c r="J295" s="17">
         <v>24.882352941176471</v>
       </c>
       <c r="K295" s="15">
@@ -28801,7 +28816,7 @@
       </c>
     </row>
     <row r="296" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="18">
         <v>37</v>
       </c>
       <c r="B296" s="5" t="s">
@@ -28828,7 +28843,7 @@
       <c r="I296" s="6">
         <v>9516</v>
       </c>
-      <c r="J296" s="15">
+      <c r="J296" s="17">
         <v>22.705882352941178</v>
       </c>
       <c r="K296" s="15">
@@ -28896,7 +28911,7 @@
       </c>
     </row>
     <row r="297" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="18">
         <v>37</v>
       </c>
       <c r="B297" s="5" t="s">
@@ -28923,7 +28938,7 @@
       <c r="I297" s="6">
         <v>9114</v>
       </c>
-      <c r="J297" s="15">
+      <c r="J297" s="17">
         <v>25.0625</v>
       </c>
       <c r="K297" s="15">
@@ -28991,7 +29006,7 @@
       </c>
     </row>
     <row r="298" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="18">
         <v>38</v>
       </c>
       <c r="B298" s="5" t="s">
@@ -29018,7 +29033,7 @@
       <c r="I298" s="6">
         <v>8374</v>
       </c>
-      <c r="J298" s="15">
+      <c r="J298" s="17">
         <v>27.266666666666666</v>
       </c>
       <c r="K298" s="15">
@@ -29086,7 +29101,7 @@
       </c>
     </row>
     <row r="299" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="A299" s="18">
         <v>38</v>
       </c>
       <c r="B299" s="5" t="s">
@@ -29113,7 +29128,7 @@
       <c r="I299" s="6">
         <v>8374</v>
       </c>
-      <c r="J299" s="15">
+      <c r="J299" s="17">
         <v>26.866666666666667</v>
       </c>
       <c r="K299" s="15">
@@ -29181,7 +29196,7 @@
       </c>
     </row>
     <row r="300" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="A300" s="18">
         <v>38</v>
       </c>
       <c r="B300" s="5" t="s">
@@ -29208,7 +29223,7 @@
       <c r="I300" s="6">
         <v>8264</v>
       </c>
-      <c r="J300" s="15">
+      <c r="J300" s="17">
         <v>26.666666666666668</v>
       </c>
       <c r="K300" s="15">
@@ -29276,7 +29291,7 @@
       </c>
     </row>
     <row r="301" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="A301" s="18">
         <v>38</v>
       </c>
       <c r="B301" s="5" t="s">
@@ -29303,7 +29318,7 @@
       <c r="I301" s="6">
         <v>8264</v>
       </c>
-      <c r="J301" s="15">
+      <c r="J301" s="17">
         <v>27.133333333333333</v>
       </c>
       <c r="K301" s="15">
@@ -29371,7 +29386,7 @@
       </c>
     </row>
     <row r="302" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="A302" s="18">
         <v>38</v>
       </c>
       <c r="B302" s="5" t="s">
@@ -29398,7 +29413,7 @@
       <c r="I302" s="6">
         <v>8264</v>
       </c>
-      <c r="J302" s="15">
+      <c r="J302" s="17">
         <v>26.133333333333333</v>
       </c>
       <c r="K302" s="15">
@@ -29466,7 +29481,7 @@
       </c>
     </row>
     <row r="303" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="A303" s="18">
         <v>38</v>
       </c>
       <c r="B303" s="5" t="s">
@@ -29493,7 +29508,7 @@
       <c r="I303" s="6">
         <v>8264</v>
       </c>
-      <c r="J303" s="15">
+      <c r="J303" s="17">
         <v>27.666666666666668</v>
       </c>
       <c r="K303" s="15">
@@ -29561,7 +29576,7 @@
       </c>
     </row>
     <row r="304" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="A304" s="18">
         <v>38</v>
       </c>
       <c r="B304" s="5" t="s">
@@ -29588,7 +29603,7 @@
       <c r="I304" s="6">
         <v>8883</v>
       </c>
-      <c r="J304" s="15">
+      <c r="J304" s="17">
         <v>27.25</v>
       </c>
       <c r="K304" s="15">
@@ -29656,7 +29671,7 @@
       </c>
     </row>
     <row r="305" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="A305" s="18">
         <v>38</v>
       </c>
       <c r="B305" s="5" t="s">
@@ -29683,7 +29698,7 @@
       <c r="I305" s="6">
         <v>8799</v>
       </c>
-      <c r="J305" s="15">
+      <c r="J305" s="17">
         <v>27.6875</v>
       </c>
       <c r="K305" s="15">
@@ -29751,7 +29766,7 @@
       </c>
     </row>
     <row r="306" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="A306" s="18">
         <v>39</v>
       </c>
       <c r="B306" s="5" t="s">
@@ -29778,7 +29793,7 @@
       <c r="I306" s="6">
         <v>9188</v>
       </c>
-      <c r="J306" s="15">
+      <c r="J306" s="17">
         <v>24.625</v>
       </c>
       <c r="K306" s="15">
@@ -29846,7 +29861,7 @@
       </c>
     </row>
     <row r="307" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="A307" s="18">
         <v>39</v>
       </c>
       <c r="B307" s="5" t="s">
@@ -29873,7 +29888,7 @@
       <c r="I307" s="6">
         <v>9160</v>
       </c>
-      <c r="J307" s="15">
+      <c r="J307" s="17">
         <v>28.3125</v>
       </c>
       <c r="K307" s="15">
@@ -29941,7 +29956,7 @@
       </c>
     </row>
     <row r="308" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="A308" s="18">
         <v>39</v>
       </c>
       <c r="B308" s="5" t="s">
@@ -29968,7 +29983,7 @@
       <c r="I308" s="6">
         <v>9050</v>
       </c>
-      <c r="J308" s="15">
+      <c r="J308" s="17">
         <v>28.5625</v>
       </c>
       <c r="K308" s="15">
@@ -30036,7 +30051,7 @@
       </c>
     </row>
     <row r="309" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="A309" s="18">
         <v>39</v>
       </c>
       <c r="B309" s="5" t="s">
@@ -30063,7 +30078,7 @@
       <c r="I309" s="6">
         <v>8777</v>
       </c>
-      <c r="J309" s="15">
+      <c r="J309" s="17">
         <v>24.733333333333334</v>
       </c>
       <c r="K309" s="15">
@@ -30131,7 +30146,7 @@
       </c>
     </row>
     <row r="310" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="A310" s="18">
         <v>39</v>
       </c>
       <c r="B310" s="5" t="s">
@@ -30158,7 +30173,7 @@
       <c r="I310" s="6">
         <v>8777</v>
       </c>
-      <c r="J310" s="15">
+      <c r="J310" s="17">
         <v>24.666666666666668</v>
       </c>
       <c r="K310" s="15">
@@ -30226,7 +30241,7 @@
       </c>
     </row>
     <row r="311" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="A311" s="18">
         <v>39</v>
       </c>
       <c r="B311" s="5" t="s">
@@ -30253,7 +30268,7 @@
       <c r="I311" s="6">
         <v>7372</v>
       </c>
-      <c r="J311" s="15">
+      <c r="J311" s="17">
         <v>25.23076923076923</v>
       </c>
       <c r="K311" s="15">
@@ -30321,7 +30336,7 @@
       </c>
     </row>
     <row r="312" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="18">
         <v>39</v>
       </c>
       <c r="B312" s="5" t="s">
@@ -30348,7 +30363,7 @@
       <c r="I312" s="6">
         <v>7372</v>
       </c>
-      <c r="J312" s="15">
+      <c r="J312" s="17">
         <v>22.076923076923077</v>
       </c>
       <c r="K312" s="15">
@@ -30416,7 +30431,7 @@
       </c>
     </row>
     <row r="313" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="A313" s="18">
         <v>39</v>
       </c>
       <c r="B313" s="5" t="s">
@@ -30443,7 +30458,7 @@
       <c r="I313" s="6">
         <v>7561</v>
       </c>
-      <c r="J313" s="15">
+      <c r="J313" s="17">
         <v>19.642857142857142</v>
       </c>
       <c r="K313" s="15">
@@ -30511,7 +30526,7 @@
       </c>
     </row>
     <row r="314" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="A314" s="18">
         <v>40</v>
       </c>
       <c r="B314" s="5" t="s">
@@ -30538,7 +30553,7 @@
       <c r="I314" s="6">
         <v>7102</v>
       </c>
-      <c r="J314" s="15">
+      <c r="J314" s="17">
         <v>20.666666666666668</v>
       </c>
       <c r="K314" s="15">
@@ -30606,7 +30621,7 @@
       </c>
     </row>
     <row r="315" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="A315" s="18">
         <v>40</v>
       </c>
       <c r="B315" s="5" t="s">
@@ -30633,7 +30648,7 @@
       <c r="I315" s="6">
         <v>7102</v>
       </c>
-      <c r="J315" s="15">
+      <c r="J315" s="17">
         <v>18.583333333333332</v>
       </c>
       <c r="K315" s="15">
@@ -30701,7 +30716,7 @@
       </c>
     </row>
     <row r="316" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="A316" s="18">
         <v>40</v>
       </c>
       <c r="B316" s="5" t="s">
@@ -30728,7 +30743,7 @@
       <c r="I316" s="6">
         <v>6992</v>
       </c>
-      <c r="J316" s="15">
+      <c r="J316" s="17">
         <v>18.083333333333332</v>
       </c>
       <c r="K316" s="15">
@@ -30796,7 +30811,7 @@
       </c>
     </row>
     <row r="317" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="A317" s="18">
         <v>40</v>
       </c>
       <c r="B317" s="5" t="s">
@@ -30823,7 +30838,7 @@
       <c r="I317" s="6">
         <v>6992</v>
       </c>
-      <c r="J317" s="15">
+      <c r="J317" s="17">
         <v>15.75</v>
       </c>
       <c r="K317" s="15">
@@ -30891,7 +30906,7 @@
       </c>
     </row>
     <row r="318" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="A318" s="18">
         <v>40</v>
       </c>
       <c r="B318" s="5" t="s">
@@ -30918,7 +30933,7 @@
       <c r="I318" s="6">
         <v>6992</v>
       </c>
-      <c r="J318" s="15">
+      <c r="J318" s="17">
         <v>18.25</v>
       </c>
       <c r="K318" s="15">
@@ -30986,7 +31001,7 @@
       </c>
     </row>
     <row r="319" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="A319" s="18">
         <v>40</v>
       </c>
       <c r="B319" s="5" t="s">
@@ -31013,7 +31028,7 @@
       <c r="I319" s="6">
         <v>6992</v>
       </c>
-      <c r="J319" s="15">
+      <c r="J319" s="17">
         <v>18.833333333333332</v>
       </c>
       <c r="K319" s="15">
@@ -31081,7 +31096,7 @@
       </c>
     </row>
     <row r="320" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="A320" s="18">
         <v>40</v>
       </c>
       <c r="B320" s="5" t="s">
@@ -31108,7 +31123,7 @@
       <c r="I320" s="6">
         <v>6992</v>
       </c>
-      <c r="J320" s="15">
+      <c r="J320" s="17">
         <v>23.083333333333332</v>
       </c>
       <c r="K320" s="15">
@@ -31176,7 +31191,7 @@
       </c>
     </row>
     <row r="321" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="A321" s="18">
         <v>40</v>
       </c>
       <c r="B321" s="5" t="s">
@@ -31203,7 +31218,7 @@
       <c r="I321" s="6">
         <v>6362</v>
       </c>
-      <c r="J321" s="15">
+      <c r="J321" s="17">
         <v>27.90909090909091</v>
       </c>
       <c r="K321" s="15">
